--- a/v2/docs/FightPandemics.xlsx
+++ b/v2/docs/FightPandemics.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4325" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4373" uniqueCount="631">
   <si>
     <t>Instructions</t>
   </si>
@@ -80,6 +80,9 @@
     <t>FightPandemics</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>MongoDB</t>
   </si>
   <si>
@@ -281,6 +284,27 @@
     <t>Automatically generated object_id as primary key.</t>
   </si>
   <si>
+    <t>11110b10-7fb1-11ea-ba73-c97a35e85484</t>
+  </si>
+  <si>
+    <t>createdAt</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Timestamp with the comment's creation date</t>
+  </si>
+  <si>
+    <t>19aba640-7fb1-11ea-ba73-c97a35e85484</t>
+  </si>
+  <si>
+    <t>updatedAt</t>
+  </si>
+  <si>
+    <t>Timestamp with the comment's last update date</t>
+  </si>
+  <si>
     <t>bd3573f0-7fb0-11ea-ba73-c97a35e85484</t>
   </si>
   <si>
@@ -345,27 +369,6 @@
   </si>
   <si>
     <t>_id of the user who liked the comment</t>
-  </si>
-  <si>
-    <t>11110b10-7fb1-11ea-ba73-c97a35e85484</t>
-  </si>
-  <si>
-    <t>createdAt</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>Timestamp with the comment's creation date</t>
-  </si>
-  <si>
-    <t>19aba640-7fb1-11ea-ba73-c97a35e85484</t>
-  </si>
-  <si>
-    <t>updatedAt</t>
-  </si>
-  <si>
-    <t>Timestamp with the comment's last update date</t>
   </si>
   <si>
     <t>ae4f24b0-7fb2-11ea-ba73-c97a35e85484</t>
@@ -805,6 +808,15 @@
   </si>
   <si>
     <t>Automatically generated _id.</t>
+  </si>
+  <si>
+    <t>65df2350-8184-11ea-9e2e-c5ef5a601426</t>
+  </si>
+  <si>
+    <t>6af0e5e0-8184-11ea-9e2e-c5ef5a601426</t>
+  </si>
+  <si>
+    <t>5cd376d0-8184-11ea-9e2e-c5ef5a601426</t>
   </si>
   <si>
     <t>b4066f90-8132-11ea-a764-5d61b98a5ce8</t>
@@ -2328,99 +2340,99 @@
   <sheetData>
     <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>7</v>
@@ -2432,133 +2444,133 @@
         <v>7</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>7</v>
@@ -2567,10 +2579,10 @@
         <v>7</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>7</v>
@@ -2585,22 +2597,22 @@
         <v>7</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="R5" s="4" t="s">
         <v>7</v>
@@ -2608,13 +2620,13 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>7</v>
@@ -2623,10 +2635,10 @@
         <v>7</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>7</v>
@@ -2641,16 +2653,16 @@
         <v>7</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>7</v>
@@ -2664,13 +2676,13 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>7</v>
@@ -2679,7 +2691,7 @@
         <v>7</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>7</v>
@@ -2703,7 +2715,7 @@
         <v>7</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="O7" s="4" t="s">
         <v>7</v>
@@ -2720,13 +2732,13 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>7</v>
@@ -2735,7 +2747,7 @@
         <v>7</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>7</v>
@@ -2759,7 +2771,7 @@
         <v>7</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="O8" s="4" t="s">
         <v>7</v>
@@ -2776,7 +2788,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>7</v>
@@ -2791,7 +2803,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>7</v>
@@ -2815,7 +2827,7 @@
         <v>7</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="O9" s="4" t="s">
         <v>7</v>
@@ -2832,7 +2844,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>7</v>
@@ -2847,7 +2859,7 @@
         <v>7</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>7</v>
@@ -2871,7 +2883,7 @@
         <v>7</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O10" s="4" t="s">
         <v>7</v>
@@ -2888,7 +2900,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>7</v>
@@ -2903,7 +2915,7 @@
         <v>7</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>7</v>
@@ -2927,7 +2939,7 @@
         <v>7</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="O11" s="4" t="s">
         <v>7</v>
@@ -2944,7 +2956,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>7</v>
@@ -2959,7 +2971,7 @@
         <v>7</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>7</v>
@@ -3000,7 +3012,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>7</v>
@@ -3015,7 +3027,7 @@
         <v>7</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>7</v>
@@ -3056,7 +3068,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>7</v>
@@ -3071,7 +3083,7 @@
         <v>7</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>7</v>
@@ -3112,7 +3124,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>7</v>
@@ -3127,7 +3139,7 @@
         <v>7</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>7</v>
@@ -3168,7 +3180,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>7</v>
@@ -3183,7 +3195,7 @@
         <v>7</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>7</v>
@@ -3224,7 +3236,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>7</v>
@@ -3239,7 +3251,7 @@
         <v>7</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>7</v>
@@ -3280,7 +3292,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>7</v>
@@ -3295,7 +3307,7 @@
         <v>7</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>7</v>
@@ -3336,7 +3348,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>7</v>
@@ -3351,7 +3363,7 @@
         <v>7</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>7</v>
@@ -3392,7 +3404,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>7</v>
@@ -3407,7 +3419,7 @@
         <v>7</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>7</v>
@@ -3448,7 +3460,7 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>7</v>
@@ -3463,7 +3475,7 @@
         <v>7</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>7</v>
@@ -3519,7 +3531,7 @@
         <v>7</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>7</v>
@@ -3575,7 +3587,7 @@
         <v>7</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>7</v>
@@ -3631,7 +3643,7 @@
         <v>7</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>7</v>
@@ -3687,7 +3699,7 @@
         <v>7</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>7</v>
@@ -3743,7 +3755,7 @@
         <v>7</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>7</v>
@@ -3799,7 +3811,7 @@
         <v>7</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>7</v>
@@ -3855,7 +3867,7 @@
         <v>7</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>7</v>
@@ -3911,7 +3923,7 @@
         <v>7</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>7</v>
@@ -3967,7 +3979,7 @@
         <v>7</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>7</v>
@@ -4023,7 +4035,7 @@
         <v>7</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>7</v>
@@ -4079,7 +4091,7 @@
         <v>7</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>7</v>
@@ -4135,7 +4147,7 @@
         <v>7</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>7</v>
@@ -4191,7 +4203,7 @@
         <v>7</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>7</v>
@@ -4247,7 +4259,7 @@
         <v>7</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>7</v>
@@ -4303,7 +4315,7 @@
         <v>7</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>7</v>
@@ -4359,7 +4371,7 @@
         <v>7</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>7</v>
@@ -4415,7 +4427,7 @@
         <v>7</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>7</v>
@@ -4471,7 +4483,7 @@
         <v>7</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>7</v>
@@ -4527,7 +4539,7 @@
         <v>7</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>7</v>
@@ -4583,7 +4595,7 @@
         <v>7</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>7</v>
@@ -4639,7 +4651,7 @@
         <v>7</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>7</v>
@@ -4695,7 +4707,7 @@
         <v>7</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>7</v>
@@ -4751,7 +4763,7 @@
         <v>7</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>7</v>
@@ -4807,7 +4819,7 @@
         <v>7</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>7</v>
@@ -4863,7 +4875,7 @@
         <v>7</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>7</v>
@@ -4919,7 +4931,7 @@
         <v>7</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>7</v>
@@ -4975,7 +4987,7 @@
         <v>7</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>7</v>
@@ -5031,7 +5043,7 @@
         <v>7</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>7</v>
@@ -5087,7 +5099,7 @@
         <v>7</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>7</v>
@@ -5143,7 +5155,7 @@
         <v>7</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>7</v>
@@ -5199,7 +5211,7 @@
         <v>7</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>7</v>
@@ -5255,7 +5267,7 @@
         <v>7</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>7</v>
@@ -5311,7 +5323,7 @@
         <v>7</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>7</v>
@@ -5367,7 +5379,7 @@
         <v>7</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>7</v>
@@ -5423,7 +5435,7 @@
         <v>7</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>7</v>
@@ -5479,7 +5491,7 @@
         <v>7</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>7</v>
@@ -5535,7 +5547,7 @@
         <v>7</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>7</v>
@@ -5591,7 +5603,7 @@
         <v>7</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>7</v>
@@ -5647,7 +5659,7 @@
         <v>7</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>7</v>
@@ -5703,7 +5715,7 @@
         <v>7</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>7</v>
@@ -5759,7 +5771,7 @@
         <v>7</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>7</v>
@@ -5815,7 +5827,7 @@
         <v>7</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>7</v>
@@ -5871,7 +5883,7 @@
         <v>7</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>7</v>
@@ -5927,7 +5939,7 @@
         <v>7</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>7</v>
@@ -5983,7 +5995,7 @@
         <v>7</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>7</v>
@@ -6039,7 +6051,7 @@
         <v>7</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>7</v>
@@ -6095,7 +6107,7 @@
         <v>7</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>7</v>
@@ -6151,7 +6163,7 @@
         <v>7</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>7</v>
@@ -6207,7 +6219,7 @@
         <v>7</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>7</v>
@@ -6263,7 +6275,7 @@
         <v>7</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>7</v>
@@ -6319,7 +6331,7 @@
         <v>7</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>7</v>
@@ -6375,7 +6387,7 @@
         <v>7</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>7</v>
@@ -6431,7 +6443,7 @@
         <v>7</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>7</v>
@@ -6487,7 +6499,7 @@
         <v>7</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>7</v>
@@ -6543,7 +6555,7 @@
         <v>7</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>7</v>
@@ -6599,7 +6611,7 @@
         <v>7</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>7</v>
@@ -6655,7 +6667,7 @@
         <v>7</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>7</v>
@@ -6711,7 +6723,7 @@
         <v>7</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>7</v>
@@ -6767,7 +6779,7 @@
         <v>7</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>7</v>
@@ -6823,7 +6835,7 @@
         <v>7</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>7</v>
@@ -6879,7 +6891,7 @@
         <v>7</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>7</v>
@@ -6935,7 +6947,7 @@
         <v>7</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>7</v>
@@ -6991,7 +7003,7 @@
         <v>7</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="G84" s="4" t="s">
         <v>7</v>
@@ -7047,7 +7059,7 @@
         <v>7</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>7</v>
@@ -7103,7 +7115,7 @@
         <v>7</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>7</v>
@@ -7159,7 +7171,7 @@
         <v>7</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="G87" s="4" t="s">
         <v>7</v>
@@ -7215,7 +7227,7 @@
         <v>7</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>7</v>
@@ -7271,7 +7283,7 @@
         <v>7</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="G89" s="4" t="s">
         <v>7</v>
@@ -7327,7 +7339,7 @@
         <v>7</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>7</v>
@@ -7383,7 +7395,7 @@
         <v>7</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="G91" s="4" t="s">
         <v>7</v>
@@ -7439,7 +7451,7 @@
         <v>7</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="G92" s="4" t="s">
         <v>7</v>
@@ -7495,7 +7507,7 @@
         <v>7</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="G93" s="4" t="s">
         <v>7</v>
@@ -7551,7 +7563,7 @@
         <v>7</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="G94" s="4" t="s">
         <v>7</v>
@@ -7607,7 +7619,7 @@
         <v>7</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="G95" s="4" t="s">
         <v>7</v>
@@ -7663,7 +7675,7 @@
         <v>7</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="G96" s="4" t="s">
         <v>7</v>
@@ -7719,7 +7731,7 @@
         <v>7</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="G97" s="4" t="s">
         <v>7</v>
@@ -7775,7 +7787,7 @@
         <v>7</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="G98" s="4" t="s">
         <v>7</v>
@@ -7831,7 +7843,7 @@
         <v>7</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="G99" s="4" t="s">
         <v>7</v>
@@ -7887,7 +7899,7 @@
         <v>7</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="G100" s="4" t="s">
         <v>7</v>
@@ -7943,7 +7955,7 @@
         <v>7</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="G101" s="4" t="s">
         <v>7</v>
@@ -7999,7 +8011,7 @@
         <v>7</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="G102" s="4" t="s">
         <v>7</v>
@@ -8055,7 +8067,7 @@
         <v>7</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="G103" s="4" t="s">
         <v>7</v>
@@ -8111,7 +8123,7 @@
         <v>7</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="G104" s="4" t="s">
         <v>7</v>
@@ -8167,7 +8179,7 @@
         <v>7</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="G105" s="4" t="s">
         <v>7</v>
@@ -8223,7 +8235,7 @@
         <v>7</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="G106" s="4" t="s">
         <v>7</v>
@@ -8279,7 +8291,7 @@
         <v>7</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="G107" s="4" t="s">
         <v>7</v>
@@ -8335,7 +8347,7 @@
         <v>7</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="G108" s="4" t="s">
         <v>7</v>
@@ -8391,7 +8403,7 @@
         <v>7</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="G109" s="4" t="s">
         <v>7</v>
@@ -8447,7 +8459,7 @@
         <v>7</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="G110" s="4" t="s">
         <v>7</v>
@@ -8503,7 +8515,7 @@
         <v>7</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="G111" s="4" t="s">
         <v>7</v>
@@ -8577,72 +8589,72 @@
         <v>8</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>7</v>
@@ -8651,34 +8663,34 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="I3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>346</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>342</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>7</v>
@@ -8687,34 +8699,34 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>7</v>
@@ -8723,34 +8735,34 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>7</v>
@@ -8759,34 +8771,34 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>7</v>
@@ -8795,34 +8807,34 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>7</v>
@@ -8831,34 +8843,34 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>7</v>
@@ -8931,147 +8943,147 @@
         <v>8</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>11</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AC1" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AE1" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF1" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG1" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AH1" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AI1" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ1" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK1" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL1" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM1" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AN1" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO1" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AP1" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AQ1" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AR1" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AS1" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AT1" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>7</v>
@@ -9086,10 +9098,10 @@
         <v>7</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>7</v>
@@ -9129,10 +9141,10 @@
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>7</v>
@@ -9147,10 +9159,10 @@
         <v>7</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>7</v>
@@ -9200,10 +9212,10 @@
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>7</v>
@@ -9212,16 +9224,16 @@
         <v>7</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="L4" s="4" t="b">
         <v>0</v>
@@ -9255,7 +9267,7 @@
         <v>7</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="AA4" s="4">
         <v>-180</v>
@@ -9285,28 +9297,28 @@
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>376</v>
-      </c>
       <c r="J5" s="4" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>7</v>
@@ -9343,7 +9355,7 @@
         <v>7</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="AA5" s="4">
         <v>-90</v>
@@ -9373,10 +9385,10 @@
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>7</v>
@@ -9391,10 +9403,10 @@
         <v>7</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>7</v>
@@ -9433,7 +9445,7 @@
         <v>7</v>
       </c>
       <c r="W6" s="4" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="X6" s="4" t="s">
         <v>7</v>
@@ -9451,10 +9463,10 @@
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>7</v>
@@ -9469,10 +9481,10 @@
         <v>7</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>7</v>
@@ -9529,10 +9541,10 @@
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>7</v>
@@ -9547,10 +9559,10 @@
         <v>7</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>7</v>
@@ -9607,10 +9619,10 @@
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>7</v>
@@ -9625,10 +9637,10 @@
         <v>7</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>7</v>
@@ -9685,10 +9697,10 @@
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>7</v>
@@ -9703,10 +9715,10 @@
         <v>7</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>7</v>
@@ -9763,10 +9775,10 @@
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>7</v>
@@ -9781,10 +9793,10 @@
         <v>7</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>7</v>
@@ -9824,10 +9836,10 @@
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>7</v>
@@ -9842,10 +9854,10 @@
         <v>7</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>7</v>
@@ -9887,10 +9899,10 @@
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>7</v>
@@ -9905,10 +9917,10 @@
         <v>7</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>7</v>
@@ -9965,10 +9977,10 @@
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>7</v>
@@ -9983,10 +9995,10 @@
         <v>7</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>7</v>
@@ -10043,10 +10055,10 @@
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>7</v>
@@ -10061,10 +10073,10 @@
         <v>7</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>7</v>
@@ -10121,10 +10133,10 @@
     </row>
     <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>7</v>
@@ -10136,10 +10148,10 @@
         <v>7</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>7</v>
@@ -10162,18 +10174,18 @@
       <c r="AO16" s="4"/>
       <c r="AP16" s="4"/>
       <c r="AQ16" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AT16" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>7</v>
@@ -10188,10 +10200,10 @@
         <v>7</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>7</v>
@@ -10215,7 +10227,7 @@
         <v>7</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="V17" s="4"/>
       <c r="W17" s="4" t="s">
@@ -10237,10 +10249,10 @@
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>7</v>
@@ -10255,10 +10267,10 @@
         <v>7</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>7</v>
@@ -10306,10 +10318,10 @@
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>7</v>
@@ -10324,10 +10336,10 @@
         <v>7</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>7</v>
@@ -10363,13 +10375,13 @@
         <v>7</v>
       </c>
       <c r="V19" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="W19" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X19" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Y19" s="4"/>
       <c r="AB19" s="4"/>
@@ -10384,10 +10396,10 @@
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>7</v>
@@ -10402,10 +10414,10 @@
         <v>7</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>7</v>
@@ -10441,13 +10453,13 @@
         <v>7</v>
       </c>
       <c r="V20" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="W20" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X20" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Y20" s="4"/>
       <c r="AB20" s="4"/>
@@ -10462,10 +10474,10 @@
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>7</v>
@@ -10480,10 +10492,10 @@
         <v>7</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>7</v>
@@ -10519,13 +10531,13 @@
         <v>7</v>
       </c>
       <c r="V21" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="W21" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X21" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Y21" s="4"/>
       <c r="AB21" s="4"/>
@@ -10540,10 +10552,10 @@
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>7</v>
@@ -10558,10 +10570,10 @@
         <v>7</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>7</v>
@@ -10597,13 +10609,13 @@
         <v>7</v>
       </c>
       <c r="V22" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="W22" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X22" s="4" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Y22" s="4"/>
       <c r="AB22" s="4"/>
@@ -10618,10 +10630,10 @@
     </row>
     <row r="23" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>7</v>
@@ -10636,10 +10648,10 @@
         <v>7</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="K23" s="4" t="s">
         <v>7</v>
@@ -10675,13 +10687,13 @@
         <v>7</v>
       </c>
       <c r="V23" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="W23" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X23" s="4" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Y23" s="4"/>
       <c r="AB23" s="4"/>
@@ -10696,10 +10708,10 @@
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>7</v>
@@ -10714,10 +10726,10 @@
         <v>7</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K24" s="4" t="s">
         <v>7</v>
@@ -10753,7 +10765,7 @@
         <v>7</v>
       </c>
       <c r="V24" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="W24" s="4" t="s">
         <v>7</v>
@@ -10774,10 +10786,10 @@
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>7</v>
@@ -10792,10 +10804,10 @@
         <v>7</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="K25" s="4" t="s">
         <v>7</v>
@@ -10831,7 +10843,7 @@
         <v>7</v>
       </c>
       <c r="V25" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="W25" s="4" t="s">
         <v>7</v>
@@ -10852,10 +10864,10 @@
     </row>
     <row r="26" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>7</v>
@@ -10870,10 +10882,10 @@
         <v>7</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="K26" s="4" t="s">
         <v>7</v>
@@ -10912,7 +10924,7 @@
         <v>7</v>
       </c>
       <c r="W26" s="4" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="X26" s="4" t="s">
         <v>7</v>
@@ -10930,10 +10942,10 @@
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>7</v>
@@ -10948,10 +10960,10 @@
         <v>7</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="K27" s="4" t="s">
         <v>7</v>
@@ -11008,10 +11020,10 @@
     </row>
     <row r="28" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>7</v>
@@ -11026,10 +11038,10 @@
         <v>7</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="K28" s="4" t="s">
         <v>7</v>
@@ -11086,10 +11098,10 @@
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>7</v>
@@ -11104,10 +11116,10 @@
         <v>7</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="K29" s="4" t="s">
         <v>7</v>
@@ -11155,10 +11167,10 @@
     </row>
     <row r="30" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>7</v>
@@ -11173,10 +11185,10 @@
         <v>7</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="K30" s="4" t="s">
         <v>7</v>
@@ -11200,14 +11212,14 @@
         <v>7</v>
       </c>
       <c r="R30" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="V30" s="4"/>
       <c r="W30" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X30" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Y30" s="4"/>
       <c r="AB30" s="4"/>
@@ -11222,10 +11234,10 @@
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>7</v>
@@ -11240,10 +11252,10 @@
         <v>7</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="K31" s="4" t="s">
         <v>7</v>
@@ -11267,14 +11279,14 @@
         <v>7</v>
       </c>
       <c r="R31" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="V31" s="4"/>
       <c r="W31" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X31" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Y31" s="4"/>
       <c r="AB31" s="4"/>
@@ -11289,10 +11301,10 @@
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>7</v>
@@ -11307,10 +11319,10 @@
         <v>7</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="K32" s="4" t="s">
         <v>7</v>
@@ -11334,14 +11346,14 @@
         <v>7</v>
       </c>
       <c r="R32" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="V32" s="4"/>
       <c r="W32" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X32" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Y32" s="4"/>
       <c r="AB32" s="4"/>
@@ -11356,10 +11368,10 @@
     </row>
     <row r="33" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>7</v>
@@ -11374,10 +11386,10 @@
         <v>7</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="K33" s="4" t="s">
         <v>7</v>
@@ -11401,14 +11413,14 @@
         <v>7</v>
       </c>
       <c r="R33" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="V33" s="4"/>
       <c r="W33" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X33" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Y33" s="4"/>
       <c r="AB33" s="4"/>
@@ -11637,13 +11649,13 @@
         <v>7</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -11681,7 +11693,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>11</v>
@@ -11689,10 +11701,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>7</v>
@@ -11729,42 +11741,42 @@
         <v>8</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G2" s="4" t="b">
         <v>0</v>
@@ -11772,22 +11784,22 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="G3" s="4" t="b">
         <v>0</v>
@@ -11795,22 +11807,22 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G4" s="4" t="b">
         <v>1</v>
@@ -11818,22 +11830,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G5" s="4" t="b">
         <v>0</v>
@@ -11858,7 +11870,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT81"/>
+  <dimension ref="A1:AT84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -11902,153 +11914,153 @@
         <v>8</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>11</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AC1" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AE1" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF1" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG1" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AH1" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AI1" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ1" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK1" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL1" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM1" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AN1" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO1" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AP1" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AQ1" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AR1" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AS1" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AT1" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>7</v>
@@ -12057,10 +12069,10 @@
         <v>7</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>7</v>
@@ -12102,16 +12114,16 @@
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>7</v>
@@ -12120,10 +12132,10 @@
         <v>7</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>7</v>
@@ -12135,15 +12147,18 @@
         <v>0</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="Q3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="V3" s="4" t="s">
@@ -12171,10 +12186,10 @@
         <v>91</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>7</v>
@@ -12183,10 +12198,10 @@
         <v>7</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>7</v>
@@ -12207,6 +12222,9 @@
         <v>7</v>
       </c>
       <c r="Q4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="V4" s="4" t="s">
@@ -12228,16 +12246,16 @@
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>7</v>
@@ -12246,28 +12264,28 @@
         <v>7</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L5" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="4" t="b">
         <v>0</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="Q5" s="4" t="s">
         <v>7</v>
@@ -12291,16 +12309,16 @@
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>7</v>
@@ -12309,10 +12327,10 @@
         <v>7</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>7</v>
@@ -12335,22 +12353,7 @@
       <c r="Q6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="R6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="V6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="W6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X6" s="4" t="s">
@@ -12375,63 +12378,55 @@
         <v>101</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="J7" s="4" t="s">
+      <c r="O7" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="K7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L7" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M7" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="P7" s="4" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="Q7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4" t="s">
+      <c r="V7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="Y7" s="4"/>
       <c r="AB7" s="4"/>
       <c r="AD7" s="4"/>
-      <c r="AG7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI7" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ7" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
       <c r="AK7" s="4"/>
       <c r="AN7" s="4"/>
       <c r="AO7" s="4"/>
@@ -12446,22 +12441,28 @@
         <v>105</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="L8" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="4" t="b">
         <v>0</v>
@@ -12473,12 +12474,27 @@
         <v>7</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="Q8" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="R8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="V8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X8" s="4" t="s">
@@ -12497,16 +12513,16 @@
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>7</v>
@@ -12515,16 +12531,16 @@
         <v>7</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L9" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" s="4" t="b">
         <v>0</v>
@@ -12541,20 +12557,25 @@
       <c r="Q9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="R9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="V9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="X9" s="4" t="s">
+      <c r="V9" s="4"/>
+      <c r="W9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="Y9" s="4"/>
       <c r="AB9" s="4"/>
       <c r="AD9" s="4"/>
-      <c r="AI9" s="4"/>
-      <c r="AJ9" s="4"/>
+      <c r="AG9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ9" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="AK9" s="4"/>
       <c r="AN9" s="4"/>
       <c r="AO9" s="4"/>
@@ -12563,34 +12584,28 @@
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>7</v>
+        <v>114</v>
       </c>
       <c r="L10" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="4" t="b">
         <v>0</v>
@@ -12602,12 +12617,9 @@
         <v>7</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="R10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="V10" s="4" t="s">
@@ -12629,16 +12641,16 @@
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>7</v>
@@ -12647,7 +12659,7 @@
         <v>7</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>7</v>
@@ -12692,16 +12704,16 @@
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>7</v>
@@ -12710,10 +12722,10 @@
         <v>7</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>7</v>
@@ -12758,16 +12770,16 @@
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>7</v>
@@ -12776,10 +12788,10 @@
         <v>7</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>7</v>
@@ -12824,16 +12836,16 @@
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>7</v>
@@ -12842,10 +12854,10 @@
         <v>7</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>7</v>
@@ -12890,16 +12902,16 @@
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>7</v>
@@ -12908,7 +12920,7 @@
         <v>7</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>7</v>
@@ -12959,16 +12971,16 @@
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>7</v>
@@ -12977,10 +12989,10 @@
         <v>7</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>7</v>
@@ -12992,13 +13004,13 @@
         <v>0</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="Q16" s="4" t="s">
         <v>7</v>
@@ -13022,16 +13034,16 @@
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>7</v>
@@ -13040,7 +13052,7 @@
         <v>7</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>7</v>
@@ -13100,16 +13112,16 @@
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>7</v>
@@ -13118,7 +13130,7 @@
         <v>7</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>7</v>
@@ -13178,25 +13190,25 @@
     </row>
     <row r="19" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L19" s="4" t="b">
         <v>1</v>
@@ -13216,24 +13228,24 @@
       <c r="AO19" s="4"/>
       <c r="AP19" s="4"/>
       <c r="AQ19" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AT19" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>7</v>
@@ -13242,10 +13254,10 @@
         <v>7</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>7</v>
@@ -13302,16 +13314,16 @@
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>7</v>
@@ -13320,10 +13332,10 @@
         <v>7</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>7</v>
@@ -13380,16 +13392,16 @@
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>7</v>
@@ -13398,7 +13410,7 @@
         <v>7</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J22" s="4" t="s">
         <v>7</v>
@@ -13447,16 +13459,16 @@
     </row>
     <row r="23" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>7</v>
@@ -13465,10 +13477,10 @@
         <v>7</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K23" s="4" t="s">
         <v>7</v>
@@ -13507,10 +13519,10 @@
         <v>7</v>
       </c>
       <c r="W23" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="X23" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Y23" s="4"/>
       <c r="AB23" s="4"/>
@@ -13525,16 +13537,16 @@
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>7</v>
@@ -13543,10 +13555,10 @@
         <v>7</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K24" s="4" t="s">
         <v>7</v>
@@ -13585,7 +13597,7 @@
         <v>7</v>
       </c>
       <c r="W24" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="X24" s="4" t="s">
         <v>7</v>
@@ -13603,16 +13615,16 @@
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>7</v>
@@ -13621,10 +13633,10 @@
         <v>7</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K25" s="4" t="s">
         <v>7</v>
@@ -13674,25 +13686,25 @@
     </row>
     <row r="26" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L26" s="4" t="b">
         <v>0</v>
@@ -13701,13 +13713,13 @@
         <v>0</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O26" s="4" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="P26" s="4" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="Q26" s="4" t="s">
         <v>7</v>
@@ -13731,16 +13743,16 @@
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>7</v>
@@ -13749,10 +13761,10 @@
         <v>7</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K27" s="4" t="s">
         <v>7</v>
@@ -13802,22 +13814,22 @@
     </row>
     <row r="28" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J28" s="4" t="s">
         <v>7</v>
@@ -13856,10 +13868,10 @@
         <v>7</v>
       </c>
       <c r="W28" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="X28" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Y28" s="4"/>
       <c r="AB28" s="4"/>
@@ -13874,25 +13886,25 @@
     </row>
     <row r="29" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L29" s="4" t="b">
         <v>0</v>
@@ -13912,24 +13924,24 @@
       <c r="AO29" s="4"/>
       <c r="AP29" s="4"/>
       <c r="AQ29" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AT29" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>7</v>
@@ -13938,7 +13950,7 @@
         <v>7</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="J30" s="4" t="s">
         <v>7</v>
@@ -13991,22 +14003,22 @@
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J31" s="4" t="s">
         <v>7</v>
@@ -14063,16 +14075,16 @@
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>7</v>
@@ -14081,7 +14093,7 @@
         <v>7</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J32" s="4" t="s">
         <v>7</v>
@@ -14132,16 +14144,16 @@
     </row>
     <row r="33" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>7</v>
@@ -14150,7 +14162,7 @@
         <v>7</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J33" s="4" t="s">
         <v>7</v>
@@ -14210,16 +14222,16 @@
     </row>
     <row r="34" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>7</v>
@@ -14228,7 +14240,7 @@
         <v>7</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J34" s="4" t="s">
         <v>7</v>
@@ -14288,16 +14300,16 @@
     </row>
     <row r="35" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>7</v>
@@ -14306,7 +14318,7 @@
         <v>7</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J35" s="4" t="s">
         <v>7</v>
@@ -14366,16 +14378,16 @@
     </row>
     <row r="36" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>7</v>
@@ -14384,7 +14396,7 @@
         <v>7</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J36" s="4" t="s">
         <v>7</v>
@@ -14444,16 +14456,16 @@
     </row>
     <row r="37" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>7</v>
@@ -14462,10 +14474,10 @@
         <v>7</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K37" s="4" t="s">
         <v>7</v>
@@ -14486,7 +14498,7 @@
         <v>7</v>
       </c>
       <c r="Q37" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="R37" s="4" t="s">
         <v>7</v>
@@ -14510,16 +14522,16 @@
     </row>
     <row r="38" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>7</v>
@@ -14528,10 +14540,10 @@
         <v>7</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K38" s="4" t="s">
         <v>7</v>
@@ -14576,16 +14588,16 @@
     </row>
     <row r="39" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>7</v>
@@ -14594,10 +14606,10 @@
         <v>7</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K39" s="4" t="s">
         <v>7</v>
@@ -14633,13 +14645,13 @@
         <v>7</v>
       </c>
       <c r="V39" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="W39" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X39" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Y39" s="4"/>
       <c r="AB39" s="4"/>
@@ -14654,16 +14666,16 @@
     </row>
     <row r="40" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>7</v>
@@ -14672,10 +14684,10 @@
         <v>7</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K40" s="4" t="s">
         <v>7</v>
@@ -14732,16 +14744,16 @@
     </row>
     <row r="41" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>7</v>
@@ -14750,10 +14762,10 @@
         <v>7</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K41" s="4" t="s">
         <v>7</v>
@@ -14810,16 +14822,16 @@
     </row>
     <row r="42" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>7</v>
@@ -14828,10 +14840,10 @@
         <v>7</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K42" s="4" t="s">
         <v>7</v>
@@ -14888,25 +14900,25 @@
     </row>
     <row r="43" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L43" s="4" t="b">
         <v>0</v>
@@ -14926,24 +14938,24 @@
       <c r="AO43" s="4"/>
       <c r="AP43" s="4"/>
       <c r="AQ43" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AT43" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="44" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>7</v>
@@ -14952,10 +14964,10 @@
         <v>7</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K44" s="4" t="s">
         <v>7</v>
@@ -14997,16 +15009,16 @@
     </row>
     <row r="45" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>7</v>
@@ -15015,10 +15027,10 @@
         <v>7</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K45" s="4" t="s">
         <v>7</v>
@@ -15066,16 +15078,16 @@
     </row>
     <row r="46" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>7</v>
@@ -15084,10 +15096,10 @@
         <v>7</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K46" s="4" t="s">
         <v>7</v>
@@ -15111,14 +15123,14 @@
         <v>7</v>
       </c>
       <c r="R46" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="V46" s="4"/>
       <c r="W46" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X46" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Y46" s="4"/>
       <c r="AB46" s="4"/>
@@ -15133,16 +15145,16 @@
     </row>
     <row r="47" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>7</v>
@@ -15151,10 +15163,10 @@
         <v>7</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K47" s="4" t="s">
         <v>7</v>
@@ -15178,14 +15190,14 @@
         <v>7</v>
       </c>
       <c r="R47" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="V47" s="4"/>
       <c r="W47" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X47" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Y47" s="4"/>
       <c r="AB47" s="4"/>
@@ -15200,16 +15212,16 @@
     </row>
     <row r="48" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>7</v>
@@ -15218,10 +15230,10 @@
         <v>7</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K48" s="4" t="s">
         <v>7</v>
@@ -15269,16 +15281,16 @@
     </row>
     <row r="49" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>7</v>
@@ -15287,10 +15299,10 @@
         <v>7</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K49" s="4" t="s">
         <v>7</v>
@@ -15314,14 +15326,14 @@
         <v>7</v>
       </c>
       <c r="R49" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="V49" s="4"/>
       <c r="W49" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X49" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Y49" s="4"/>
       <c r="AB49" s="4"/>
@@ -15336,16 +15348,16 @@
     </row>
     <row r="50" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>7</v>
@@ -15354,10 +15366,10 @@
         <v>7</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K50" s="4" t="s">
         <v>7</v>
@@ -15381,14 +15393,14 @@
         <v>7</v>
       </c>
       <c r="R50" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="V50" s="4"/>
       <c r="W50" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X50" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Y50" s="4"/>
       <c r="AB50" s="4"/>
@@ -15403,16 +15415,16 @@
     </row>
     <row r="51" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>7</v>
@@ -15421,10 +15433,10 @@
         <v>7</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K51" s="4" t="s">
         <v>7</v>
@@ -15448,14 +15460,14 @@
         <v>7</v>
       </c>
       <c r="R51" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="V51" s="4"/>
       <c r="W51" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X51" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Y51" s="4"/>
       <c r="AB51" s="4"/>
@@ -15470,16 +15482,16 @@
     </row>
     <row r="52" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>7</v>
@@ -15488,10 +15500,10 @@
         <v>7</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K52" s="4" t="s">
         <v>7</v>
@@ -15527,7 +15539,7 @@
         <v>7</v>
       </c>
       <c r="V52" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="W52" s="4" t="s">
         <v>7</v>
@@ -15548,16 +15560,16 @@
     </row>
     <row r="53" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>7</v>
@@ -15566,10 +15578,10 @@
         <v>7</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K53" s="4" t="s">
         <v>7</v>
@@ -15617,16 +15629,16 @@
     </row>
     <row r="54" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>7</v>
@@ -15635,10 +15647,10 @@
         <v>7</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K54" s="4" t="s">
         <v>7</v>
@@ -15674,13 +15686,13 @@
         <v>7</v>
       </c>
       <c r="V54" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="W54" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X54" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Y54" s="4"/>
       <c r="AB54" s="4"/>
@@ -15695,16 +15707,16 @@
     </row>
     <row r="55" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>7</v>
@@ -15713,10 +15725,10 @@
         <v>7</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K55" s="4" t="s">
         <v>7</v>
@@ -15752,13 +15764,13 @@
         <v>7</v>
       </c>
       <c r="V55" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="W55" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X55" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Y55" s="4"/>
       <c r="AB55" s="4"/>
@@ -15773,16 +15785,16 @@
     </row>
     <row r="56" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>7</v>
@@ -15791,10 +15803,10 @@
         <v>7</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K56" s="4" t="s">
         <v>7</v>
@@ -15830,13 +15842,13 @@
         <v>7</v>
       </c>
       <c r="V56" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="W56" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X56" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Y56" s="4"/>
       <c r="AB56" s="4"/>
@@ -15851,16 +15863,16 @@
     </row>
     <row r="57" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>7</v>
@@ -15869,10 +15881,10 @@
         <v>7</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K57" s="4" t="s">
         <v>7</v>
@@ -15908,13 +15920,13 @@
         <v>7</v>
       </c>
       <c r="V57" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="W57" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X57" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Y57" s="4"/>
       <c r="AB57" s="4"/>
@@ -15929,16 +15941,16 @@
     </row>
     <row r="58" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>7</v>
@@ -15947,10 +15959,10 @@
         <v>7</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K58" s="4" t="s">
         <v>7</v>
@@ -15986,13 +15998,13 @@
         <v>7</v>
       </c>
       <c r="V58" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="W58" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X58" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Y58" s="4"/>
       <c r="AB58" s="4"/>
@@ -16007,16 +16019,16 @@
     </row>
     <row r="59" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>7</v>
@@ -16025,10 +16037,10 @@
         <v>7</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K59" s="4" t="s">
         <v>7</v>
@@ -16085,16 +16097,16 @@
     </row>
     <row r="60" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>7</v>
@@ -16103,10 +16115,10 @@
         <v>7</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K60" s="4" t="s">
         <v>7</v>
@@ -16148,16 +16160,16 @@
     </row>
     <row r="61" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>260</v>
+        <v>87</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>7</v>
@@ -16166,10 +16178,10 @@
         <v>7</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>261</v>
+        <v>89</v>
       </c>
       <c r="K61" s="4" t="s">
         <v>7</v>
@@ -16181,15 +16193,18 @@
         <v>0</v>
       </c>
       <c r="N61" s="4" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="O61" s="4" t="s">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="P61" s="4" t="s">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="Q61" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R61" s="4" t="s">
         <v>7</v>
       </c>
       <c r="V61" s="4" t="s">
@@ -16211,16 +16226,16 @@
     </row>
     <row r="62" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>263</v>
+        <v>91</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>7</v>
@@ -16229,10 +16244,10 @@
         <v>7</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>264</v>
+        <v>92</v>
       </c>
       <c r="K62" s="4" t="s">
         <v>7</v>
@@ -16258,19 +16273,7 @@
       <c r="R62" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="S62" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="T62" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="U62" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="V62" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="W62" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X62" s="4" t="s">
@@ -16289,16 +16292,16 @@
     </row>
     <row r="63" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>7</v>
@@ -16307,10 +16310,10 @@
         <v>7</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>266</v>
+        <v>7</v>
       </c>
       <c r="K63" s="4" t="s">
         <v>7</v>
@@ -16336,19 +16339,7 @@
       <c r="R63" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="S63" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="T63" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="U63" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="V63" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="W63" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X63" s="4" t="s">
@@ -16365,39 +16356,58 @@
       <c r="AP63" s="4"/>
       <c r="AQ63" s="4"/>
     </row>
-    <row r="64" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>168</v>
+        <v>264</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H64" s="4" t="s">
-        <v>134</v>
+      <c r="G64" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>135</v>
+        <v>84</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>265</v>
       </c>
       <c r="K64" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L64" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M64" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="P64" s="4"/>
-      <c r="V64" s="4"/>
+      <c r="N64" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O64" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="P64" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q64" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V64" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X64" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="Y64" s="4"/>
       <c r="AB64" s="4"/>
       <c r="AD64" s="4"/>
@@ -16407,43 +16417,38 @@
       <c r="AN64" s="4"/>
       <c r="AO64" s="4"/>
       <c r="AP64" s="4"/>
-      <c r="AQ64" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="AT64" s="4" t="s">
-        <v>137</v>
-      </c>
+      <c r="AQ64" s="4"/>
     </row>
     <row r="65" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J65" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="B65" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I65" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="J65" s="4" t="s">
-        <v>270</v>
-      </c>
       <c r="K65" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L65" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M65" s="4" t="b">
         <v>0</v>
@@ -16461,9 +16466,20 @@
         <v>7</v>
       </c>
       <c r="R65" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="V65" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="S65" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T65" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U65" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V65" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="W65" s="4" t="s">
         <v>7</v>
       </c>
@@ -16483,16 +16499,16 @@
     </row>
     <row r="66" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>232</v>
+        <v>143</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>7</v>
@@ -16501,10 +16517,10 @@
         <v>7</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K66" s="4" t="s">
         <v>7</v>
@@ -16527,8 +16543,25 @@
       <c r="Q66" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="V66" s="4"/>
+      <c r="R66" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S66" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T66" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U66" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V66" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="W66" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X66" s="4" t="s">
         <v>7</v>
       </c>
       <c r="Y66" s="4"/>
@@ -16537,43 +16570,32 @@
       <c r="AI66" s="4"/>
       <c r="AJ66" s="4"/>
       <c r="AK66" s="4"/>
-      <c r="AL66" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AM66" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AN66" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="AN66" s="4"/>
       <c r="AO66" s="4"/>
       <c r="AP66" s="4"/>
       <c r="AQ66" s="4"/>
     </row>
-    <row r="67" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>274</v>
+        <v>169</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G67" s="4" t="s">
-        <v>7</v>
+      <c r="H67" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="J67" s="4" t="s">
-        <v>275</v>
+        <v>136</v>
       </c>
       <c r="K67" s="4" t="s">
         <v>7</v>
@@ -16584,39 +16606,8 @@
       <c r="M67" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="N67" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="O67" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="P67" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q67" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="R67" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="S67" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="T67" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="U67" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="V67" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="W67" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="X67" s="4" t="s">
-        <v>241</v>
-      </c>
+      <c r="P67" s="4"/>
+      <c r="V67" s="4"/>
       <c r="Y67" s="4"/>
       <c r="AB67" s="4"/>
       <c r="AD67" s="4"/>
@@ -16626,20 +16617,25 @@
       <c r="AN67" s="4"/>
       <c r="AO67" s="4"/>
       <c r="AP67" s="4"/>
-      <c r="AQ67" s="4"/>
+      <c r="AQ67" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="AT67" s="4" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="68" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>7</v>
@@ -16648,10 +16644,10 @@
         <v>7</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="K68" s="4" t="s">
         <v>7</v>
@@ -16675,25 +16671,14 @@
         <v>7</v>
       </c>
       <c r="R68" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="S68" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="T68" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="U68" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="V68" s="4" t="s">
-        <v>230</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="V68" s="4"/>
       <c r="W68" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X68" s="4" t="s">
-        <v>245</v>
+        <v>7</v>
       </c>
       <c r="Y68" s="4"/>
       <c r="AB68" s="4"/>
@@ -16708,16 +16693,16 @@
     </row>
     <row r="69" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>280</v>
+        <v>233</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>7</v>
@@ -16726,10 +16711,10 @@
         <v>7</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="K69" s="4" t="s">
         <v>7</v>
@@ -16752,26 +16737,9 @@
       <c r="Q69" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="R69" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="S69" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="T69" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="U69" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="V69" s="4" t="s">
-        <v>230</v>
-      </c>
+      <c r="V69" s="4"/>
       <c r="W69" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="X69" s="4" t="s">
-        <v>253</v>
       </c>
       <c r="Y69" s="4"/>
       <c r="AB69" s="4"/>
@@ -16779,23 +16747,31 @@
       <c r="AI69" s="4"/>
       <c r="AJ69" s="4"/>
       <c r="AK69" s="4"/>
-      <c r="AN69" s="4"/>
+      <c r="AL69" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM69" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN69" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="AO69" s="4"/>
       <c r="AP69" s="4"/>
       <c r="AQ69" s="4"/>
     </row>
     <row r="70" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>7</v>
@@ -16804,10 +16780,10 @@
         <v>7</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="K70" s="4" t="s">
         <v>7</v>
@@ -16843,13 +16819,13 @@
         <v>7</v>
       </c>
       <c r="V70" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="W70" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X70" s="4" t="s">
-        <v>285</v>
+        <v>242</v>
       </c>
       <c r="Y70" s="4"/>
       <c r="AB70" s="4"/>
@@ -16864,16 +16840,16 @@
     </row>
     <row r="71" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>7</v>
@@ -16882,10 +16858,10 @@
         <v>7</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="K71" s="4" t="s">
         <v>7</v>
@@ -16921,13 +16897,13 @@
         <v>7</v>
       </c>
       <c r="V71" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="W71" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X71" s="4" t="s">
-        <v>289</v>
+        <v>246</v>
       </c>
       <c r="Y71" s="4"/>
       <c r="AB71" s="4"/>
@@ -16942,16 +16918,16 @@
     </row>
     <row r="72" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>228</v>
+        <v>284</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>7</v>
@@ -16960,10 +16936,10 @@
         <v>7</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>229</v>
+        <v>285</v>
       </c>
       <c r="K72" s="4" t="s">
         <v>7</v>
@@ -16999,13 +16975,13 @@
         <v>7</v>
       </c>
       <c r="V72" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="W72" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X72" s="4" t="s">
-        <v>7</v>
+        <v>254</v>
       </c>
       <c r="Y72" s="4"/>
       <c r="AB72" s="4"/>
@@ -17020,16 +16996,16 @@
     </row>
     <row r="73" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>189</v>
+        <v>287</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>7</v>
@@ -17038,16 +17014,16 @@
         <v>7</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="K73" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L73" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M73" s="4" t="b">
         <v>0</v>
@@ -17077,13 +17053,13 @@
         <v>7</v>
       </c>
       <c r="V73" s="4" t="s">
-        <v>189</v>
+        <v>231</v>
       </c>
       <c r="W73" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X73" s="4" t="s">
-        <v>7</v>
+        <v>289</v>
       </c>
       <c r="Y73" s="4"/>
       <c r="AB73" s="4"/>
@@ -17098,70 +17074,70 @@
     </row>
     <row r="74" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J74" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="K74" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L74" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M74" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N74" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O74" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P74" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q74" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R74" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S74" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T74" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U74" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V74" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="W74" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X74" s="4" t="s">
         <v>293</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I74" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="J74" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="K74" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L74" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M74" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="N74" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="O74" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="P74" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q74" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="R74" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="S74" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="T74" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="U74" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="V74" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="W74" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="X74" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="Y74" s="4"/>
       <c r="AB74" s="4"/>
@@ -17176,16 +17152,16 @@
     </row>
     <row r="75" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>298</v>
+        <v>229</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>7</v>
@@ -17194,16 +17170,16 @@
         <v>7</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>299</v>
+        <v>230</v>
       </c>
       <c r="K75" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L75" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M75" s="4" t="b">
         <v>0</v>
@@ -17233,7 +17209,7 @@
         <v>7</v>
       </c>
       <c r="V75" s="4" t="s">
-        <v>7</v>
+        <v>231</v>
       </c>
       <c r="W75" s="4" t="s">
         <v>7</v>
@@ -17254,16 +17230,16 @@
     </row>
     <row r="76" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>7</v>
@@ -17272,16 +17248,16 @@
         <v>7</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="K76" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L76" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M76" s="4" t="b">
         <v>0</v>
@@ -17311,7 +17287,7 @@
         <v>7</v>
       </c>
       <c r="V76" s="4" t="s">
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="W76" s="4" t="s">
         <v>7</v>
@@ -17332,16 +17308,16 @@
     </row>
     <row r="77" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>215</v>
+        <v>298</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>7</v>
@@ -17350,10 +17326,10 @@
         <v>7</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="K77" s="4" t="s">
         <v>7</v>
@@ -17376,8 +17352,25 @@
       <c r="Q77" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="V77" s="4"/>
+      <c r="R77" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S77" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T77" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U77" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V77" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="W77" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="X77" s="4" t="s">
         <v>7</v>
       </c>
       <c r="Y77" s="4"/>
@@ -17386,31 +17379,23 @@
       <c r="AI77" s="4"/>
       <c r="AJ77" s="4"/>
       <c r="AK77" s="4"/>
-      <c r="AL77" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AM77" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AN77" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="AN77" s="4"/>
       <c r="AO77" s="4"/>
       <c r="AP77" s="4"/>
       <c r="AQ77" s="4"/>
     </row>
     <row r="78" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>7</v>
@@ -17419,10 +17404,10 @@
         <v>7</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="K78" s="4" t="s">
         <v>7</v>
@@ -17446,14 +17431,25 @@
         <v>7</v>
       </c>
       <c r="R78" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="V78" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="S78" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T78" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U78" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V78" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="W78" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X78" s="4" t="s">
-        <v>226</v>
+        <v>7</v>
       </c>
       <c r="Y78" s="4"/>
       <c r="AB78" s="4"/>
@@ -17468,16 +17464,16 @@
     </row>
     <row r="79" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>308</v>
+        <v>171</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>7</v>
@@ -17486,16 +17482,16 @@
         <v>7</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K79" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L79" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M79" s="4" t="b">
         <v>0</v>
@@ -17513,14 +17509,25 @@
         <v>7</v>
       </c>
       <c r="R79" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="V79" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="S79" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T79" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U79" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V79" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="W79" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X79" s="4" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
       <c r="Y79" s="4"/>
       <c r="AB79" s="4"/>
@@ -17535,16 +17542,16 @@
     </row>
     <row r="80" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>311</v>
+        <v>216</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>7</v>
@@ -17553,10 +17560,10 @@
         <v>7</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="K80" s="4" t="s">
         <v>7</v>
@@ -17579,15 +17586,9 @@
       <c r="Q80" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="R80" s="4" t="s">
-        <v>210</v>
-      </c>
       <c r="V80" s="4"/>
       <c r="W80" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="X80" s="4" t="s">
-        <v>210</v>
       </c>
       <c r="Y80" s="4"/>
       <c r="AB80" s="4"/>
@@ -17595,23 +17596,31 @@
       <c r="AI80" s="4"/>
       <c r="AJ80" s="4"/>
       <c r="AK80" s="4"/>
-      <c r="AN80" s="4"/>
+      <c r="AL80" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM80" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN80" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="AO80" s="4"/>
       <c r="AP80" s="4"/>
       <c r="AQ80" s="4"/>
     </row>
     <row r="81" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>7</v>
@@ -17620,10 +17629,10 @@
         <v>7</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="K81" s="4" t="s">
         <v>7</v>
@@ -17647,14 +17656,14 @@
         <v>7</v>
       </c>
       <c r="R81" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="V81" s="4"/>
       <c r="W81" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X81" s="4" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="Y81" s="4"/>
       <c r="AB81" s="4"/>
@@ -17667,78 +17676,279 @@
       <c r="AP81" s="4"/>
       <c r="AQ81" s="4"/>
     </row>
+    <row r="82" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="J82" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="K82" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L82" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M82" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N82" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O82" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P82" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q82" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R82" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="V82" s="4"/>
+      <c r="W82" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X82" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y82" s="4"/>
+      <c r="AB82" s="4"/>
+      <c r="AD82" s="4"/>
+      <c r="AI82" s="4"/>
+      <c r="AJ82" s="4"/>
+      <c r="AK82" s="4"/>
+      <c r="AN82" s="4"/>
+      <c r="AO82" s="4"/>
+      <c r="AP82" s="4"/>
+      <c r="AQ82" s="4"/>
+    </row>
+    <row r="83" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="J83" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="K83" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L83" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M83" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N83" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O83" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P83" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q83" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R83" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="V83" s="4"/>
+      <c r="W83" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X83" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y83" s="4"/>
+      <c r="AB83" s="4"/>
+      <c r="AD83" s="4"/>
+      <c r="AI83" s="4"/>
+      <c r="AJ83" s="4"/>
+      <c r="AK83" s="4"/>
+      <c r="AN83" s="4"/>
+      <c r="AO83" s="4"/>
+      <c r="AP83" s="4"/>
+      <c r="AQ83" s="4"/>
+    </row>
+    <row r="84" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="J84" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="K84" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L84" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M84" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N84" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O84" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P84" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q84" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R84" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="V84" s="4"/>
+      <c r="W84" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X84" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y84" s="4"/>
+      <c r="AB84" s="4"/>
+      <c r="AD84" s="4"/>
+      <c r="AI84" s="4"/>
+      <c r="AJ84" s="4"/>
+      <c r="AK84" s="4"/>
+      <c r="AN84" s="4"/>
+      <c r="AO84" s="4"/>
+      <c r="AP84" s="4"/>
+      <c r="AQ84" s="4"/>
+    </row>
   </sheetData>
   <dataValidations count="24">
-    <dataValidation type="list" allowBlank="1" sqref="AB10:AB81">
+    <dataValidation type="list" allowBlank="1" sqref="AB10:AB84">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="AB2:AB81">
+    <dataValidation type="list" allowBlank="1" sqref="AB2:AB84">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="AD10:AD81">
+    <dataValidation type="list" allowBlank="1" sqref="AD10:AD84">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="AD2:AD81">
+    <dataValidation type="list" allowBlank="1" sqref="AD2:AD84">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="AI10:AK81">
+    <dataValidation type="list" allowBlank="1" sqref="AI10:AK84">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="AI2:AK81">
+    <dataValidation type="list" allowBlank="1" sqref="AI2:AK84">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="AN10:AN81">
+    <dataValidation type="list" allowBlank="1" sqref="AN10:AN84">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="AN2:AN81">
+    <dataValidation type="list" allowBlank="1" sqref="AN2:AN84">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="AO10:AO81">
+    <dataValidation type="list" allowBlank="1" sqref="AO10:AO84">
       <formula1>Lists!P2:P4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="AO2:AO81">
+    <dataValidation type="list" allowBlank="1" sqref="AO2:AO84">
       <formula1>Lists!P2:P4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="AP10:AP81">
+    <dataValidation type="list" allowBlank="1" sqref="AP10:AP84">
       <formula1>Lists!Q2:Q5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="AP2:AP81">
+    <dataValidation type="list" allowBlank="1" sqref="AP2:AP84">
       <formula1>Lists!Q2:Q5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="AQ10:AQ81">
+    <dataValidation type="list" allowBlank="1" sqref="AQ10:AQ84">
       <formula1>Lists!R2:R4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="AQ2:AQ81">
+    <dataValidation type="list" allowBlank="1" sqref="AQ2:AQ84">
       <formula1>Lists!R2:R4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="I10:I81">
+    <dataValidation type="list" allowBlank="1" sqref="I10:I84">
       <formula1>Lists!A2:A21</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="I2:I81">
+    <dataValidation type="list" allowBlank="1" sqref="I2:I84">
       <formula1>Lists!A2:A21</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="L10:M81">
+    <dataValidation type="list" allowBlank="1" sqref="L10:M84">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="L2:M81">
+    <dataValidation type="list" allowBlank="1" sqref="L2:M84">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="P10:P81">
+    <dataValidation type="list" allowBlank="1" sqref="P10:P84">
       <formula1>Lists!K2:K4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="P2:P81">
+    <dataValidation type="list" allowBlank="1" sqref="P2:P84">
       <formula1>Lists!K2:K4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="V10:V81">
+    <dataValidation type="list" allowBlank="1" sqref="V10:V84">
       <formula1>Lists!N2:N11</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="V2:V81">
+    <dataValidation type="list" allowBlank="1" sqref="V2:V84">
       <formula1>Lists!N2:N11</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="Y10:Y81">
+    <dataValidation type="list" allowBlank="1" sqref="Y10:Y84">
       <formula1>Lists!O2:O6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="Y2:Y81">
+    <dataValidation type="list" allowBlank="1" sqref="Y2:Y84">
       <formula1>Lists!O2:O6</formula1>
     </dataValidation>
   </dataValidations>
@@ -17778,64 +17988,64 @@
         <v>8</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -17984,139 +18194,139 @@
         <v>8</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>11</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AC1" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AE1" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF1" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG1" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AH1" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AI1" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ1" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK1" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL1" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM1" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AN1" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO1" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AP1" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AQ1" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AR1" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AS1" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AT1" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">

--- a/v2/docs/FightPandemics.xlsx
+++ b/v2/docs/FightPandemics.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4006" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4240" uniqueCount="626">
   <si>
     <t>Instructions</t>
   </si>
@@ -44,7 +44,7 @@
     <t>MONGODB</t>
   </si>
   <si>
-    <t>4.0.0</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t/>
@@ -205,6 +205,16 @@
 The field 'type' is used to differentiate between the two subschemas, with 'individual' representing private user accounts and "Community", "Government", "Health care provider", "Non-profit", "Other", "R&amp;D", "Startup", "Traditional Company" and "University".</t>
   </si>
   <si>
+    <t>05136460-84b7-11ea-8f4d-0b62bb8cf8ca</t>
+  </si>
+  <si>
+    <t>feedbacks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collection to hold feedback on the application.
+This may be done with the user logged or not and, depending on that, we may or may not have a reference to the user in question at this model.</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
@@ -970,9 +980,6 @@
     <t>09b06aec-82f0-11ea-821a-a1813ece7f73</t>
   </si>
   <si>
-    <t>oneOf.subschema.urls.linkedinURL</t>
-  </si>
-  <si>
     <t>URL to organization's Linkedin page.</t>
   </si>
   <si>
@@ -1019,6 +1026,125 @@
   </si>
   <si>
     <t>Field to inidicate the language used by the organization.</t>
+  </si>
+  <si>
+    <t>939a9470-84c0-11ea-929b-770c2f9d8801</t>
+  </si>
+  <si>
+    <t>Timestamp with the feedback's creation date</t>
+  </si>
+  <si>
+    <t>3d427ab0-84b7-11ea-8f4d-0b62bb8cf8ca</t>
+  </si>
+  <si>
+    <t>97510cc0-84c0-11ea-929b-770c2f9d8801</t>
+  </si>
+  <si>
+    <t>Timestamp with the feedback's last update date</t>
+  </si>
+  <si>
+    <t>a408c060-84b7-11ea-8f4d-0b62bb8cf8ca</t>
+  </si>
+  <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t>numeric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A rating, in a scale of 1 to 5, of the application.
+Currently present as: "How well does FIghtPandemics meet your needs?".
+Present in the first part of the feedback and, therefore, is required.</t>
+  </si>
+  <si>
+    <t>0cca60e0-84b8-11ea-8f4d-0b62bb8cf8ca</t>
+  </si>
+  <si>
+    <t>ipAddress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caputred IP address in order to get user's location even if they are not logged.
+Captured at the first part of the feedback and, therefore, is required.</t>
+  </si>
+  <si>
+    <t>ipv4</t>
+  </si>
+  <si>
+    <t>975b3500-84b7-11ea-8f4d-0b62bb8cf8ca</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User's age.
+Currently present as: "What is your age?".
+Present in the third part of the feedback and, therefore, not required.</t>
+  </si>
+  <si>
+    <t>integer64</t>
+  </si>
+  <si>
+    <t>5128d1e0-84b8-11ea-8f4d-0b62bb8cf8ca</t>
+  </si>
+  <si>
+    <t>mostValuableFeature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User's feedback into what is the features most valuable for him/her.
+Currently present as: "Which features are the most valuable for you?".
+Present in the second part of the feedback and, therefore, not required.</t>
+  </si>
+  <si>
+    <t>9a1110c0-84b8-11ea-8f4d-0b62bb8cf8ca</t>
+  </si>
+  <si>
+    <t>whatWouldChange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User's feedback into what he/she would change about the application.
+Currently present as: "If you could change one thing about FightPandemics, what would it be?".
+Present in the second part of the feedback and, therefore, not required.</t>
+  </si>
+  <si>
+    <t>a4e177b0-84b8-11ea-8f4d-0b62bb8cf8ca</t>
+  </si>
+  <si>
+    <t>generalFeedback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User's general feedback section.
+Currently present as: "Any other feedback for us?".
+Present in the second part of the feedback and, therefore, not required.</t>
+  </si>
+  <si>
+    <t>f5f897a0-84b8-11ea-8f4d-0b62bb8cf8ca</t>
+  </si>
+  <si>
+    <t>covidImpact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User's feedback into how the COVID impacted him.
+Currently present as a multiple choice question.
+**Question:** "How has COVID-19 impacted you?"
+**Options:** 
+1. I go to work/school normally
+2. I am healthy but in a stay-at-home quarentine
+3. I have mild symptoms but haven't been tested
+4. I am diagnosed with COVID-19
+Present in the second part of the feedback and, therefore, not required.</t>
+  </si>
+  <si>
+    <t>ade31210-84b8-11ea-8f4d-0b62bb8cf8ca</t>
+  </si>
+  <si>
+    <t>userId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference to the user's _id.
+This will be present only if the user was logged in when completing the feedback.</t>
+  </si>
+  <si>
+    <t>e6c7e3d0-84b8-11ea-8f4d-0b62bb8cf8ca</t>
   </si>
   <si>
     <t>View name</t>
@@ -1146,6 +1272,15 @@
     <t>bd34fec0-7fb0-11ea-ba73-c97a35e85484 | bd359b01-7fb0-11ea-ba73-c97a35e85484</t>
   </si>
   <si>
+    <t>dda294d0-84b8-11ea-8f4d-0b62bb8cf8ca</t>
+  </si>
+  <si>
+    <t>fk users._id to feedbacks.userId</t>
+  </si>
+  <si>
+    <t>05136460-84b7-11ea-8f4d-0b62bb8cf8ca | ade31210-84b8-11ea-8f4d-0b62bb8cf8ca</t>
+  </si>
+  <si>
     <t>efec52d4-7fb2-11ea-ba73-c97a35e85484</t>
   </si>
   <si>
@@ -1169,9 +1304,6 @@
   </si>
   <si>
     <t>lng</t>
-  </si>
-  <si>
-    <t>numeric</t>
   </si>
   <si>
     <t xml:space="preserve">Location longitude
@@ -1416,9 +1548,6 @@
     <t>0..1</t>
   </si>
   <si>
-    <t>integer64</t>
-  </si>
-  <si>
     <t>files</t>
   </si>
   <si>
@@ -1474,9 +1603,6 @@
   </si>
   <si>
     <t>az</t>
-  </si>
-  <si>
-    <t>ipv4</t>
   </si>
   <si>
     <t>binary</t>
@@ -2224,72 +2350,72 @@
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>411</v>
+        <v>448</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>412</v>
+        <v>449</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>413</v>
+        <v>450</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>414</v>
+        <v>451</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>415</v>
+        <v>452</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>416</v>
+        <v>453</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>417</v>
+        <v>454</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>418</v>
+        <v>455</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>419</v>
+        <v>456</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>420</v>
+        <v>457</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>421</v>
+        <v>458</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>422</v>
+        <v>459</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>423</v>
+        <v>460</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>424</v>
+        <v>461</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>425</v>
+        <v>462</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>426</v>
+        <v>463</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>427</v>
+        <v>464</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>428</v>
+        <v>465</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>429</v>
+        <v>466</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>50</v>
@@ -2301,28 +2427,28 @@
         <v>52</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>430</v>
+        <v>467</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>431</v>
+        <v>468</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>432</v>
+        <v>469</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>433</v>
+        <v>470</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>434</v>
+        <v>471</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>7</v>
@@ -2334,139 +2460,139 @@
         <v>7</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>435</v>
+        <v>472</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>378</v>
+        <v>338</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>436</v>
+        <v>473</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>437</v>
+        <v>474</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>438</v>
+        <v>475</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>439</v>
+        <v>476</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>440</v>
+        <v>477</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>441</v>
+        <v>478</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>442</v>
+        <v>479</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>443</v>
+        <v>480</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>444</v>
+        <v>481</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>345</v>
+        <v>380</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>345</v>
+        <v>380</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>445</v>
+        <v>482</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>446</v>
+        <v>483</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>447</v>
+        <v>484</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>448</v>
+        <v>485</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>449</v>
+        <v>486</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>450</v>
+        <v>487</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>451</v>
+        <v>488</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>452</v>
+        <v>489</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>453</v>
+        <v>490</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>454</v>
+        <v>491</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>455</v>
+        <v>492</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>456</v>
+        <v>493</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>457</v>
+        <v>494</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>457</v>
+        <v>494</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>458</v>
+        <v>347</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>459</v>
+        <v>495</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>460</v>
+        <v>496</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>461</v>
+        <v>497</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>462</v>
+        <v>498</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>7</v>
@@ -2478,10 +2604,10 @@
         <v>7</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>463</v>
+        <v>499</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>464</v>
+        <v>500</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>7</v>
@@ -2496,22 +2622,22 @@
         <v>7</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>465</v>
+        <v>501</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>465</v>
+        <v>501</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>466</v>
+        <v>502</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>467</v>
+        <v>503</v>
       </c>
       <c r="Q5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>468</v>
+        <v>504</v>
       </c>
       <c r="S5" s="4" t="s">
         <v>7</v>
@@ -2519,13 +2645,13 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>357</v>
+        <v>392</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>469</v>
+        <v>505</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>7</v>
@@ -2537,10 +2663,10 @@
         <v>7</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>470</v>
+        <v>506</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>471</v>
+        <v>507</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>7</v>
@@ -2555,16 +2681,16 @@
         <v>7</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>472</v>
+        <v>508</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>472</v>
+        <v>508</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>473</v>
+        <v>509</v>
       </c>
       <c r="Q6" s="4" t="s">
         <v>7</v>
@@ -2578,13 +2704,13 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>474</v>
+        <v>510</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>7</v>
@@ -2596,7 +2722,7 @@
         <v>7</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>475</v>
+        <v>511</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>7</v>
@@ -2620,7 +2746,7 @@
         <v>7</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>476</v>
+        <v>512</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>7</v>
@@ -2637,7 +2763,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>7</v>
@@ -2655,7 +2781,7 @@
         <v>7</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>477</v>
+        <v>513</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>7</v>
@@ -2679,7 +2805,7 @@
         <v>7</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>478</v>
+        <v>343</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>7</v>
@@ -2696,7 +2822,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>479</v>
+        <v>514</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>7</v>
@@ -2714,7 +2840,7 @@
         <v>7</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>480</v>
+        <v>515</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>7</v>
@@ -2738,7 +2864,7 @@
         <v>7</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>481</v>
+        <v>516</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>7</v>
@@ -2755,7 +2881,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>7</v>
@@ -2773,7 +2899,7 @@
         <v>7</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>482</v>
+        <v>517</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>7</v>
@@ -2797,7 +2923,7 @@
         <v>7</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>7</v>
@@ -2814,7 +2940,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>483</v>
+        <v>518</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>7</v>
@@ -2832,7 +2958,7 @@
         <v>7</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>480</v>
+        <v>515</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>7</v>
@@ -2856,7 +2982,7 @@
         <v>7</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>484</v>
+        <v>519</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>7</v>
@@ -2873,7 +2999,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>485</v>
+        <v>520</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>7</v>
@@ -2891,7 +3017,7 @@
         <v>7</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>486</v>
+        <v>521</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>7</v>
@@ -2932,7 +3058,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>487</v>
+        <v>522</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>7</v>
@@ -2950,7 +3076,7 @@
         <v>7</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>488</v>
+        <v>523</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>7</v>
@@ -2991,7 +3117,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>489</v>
+        <v>524</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>7</v>
@@ -3009,7 +3135,7 @@
         <v>7</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>490</v>
+        <v>525</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>7</v>
@@ -3050,7 +3176,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>491</v>
+        <v>526</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>7</v>
@@ -3068,7 +3194,7 @@
         <v>7</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>492</v>
+        <v>527</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>7</v>
@@ -3109,7 +3235,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>493</v>
+        <v>528</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>7</v>
@@ -3127,7 +3253,7 @@
         <v>7</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>494</v>
+        <v>529</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>7</v>
@@ -3168,7 +3294,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>495</v>
+        <v>530</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>7</v>
@@ -3186,7 +3312,7 @@
         <v>7</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>496</v>
+        <v>531</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>7</v>
@@ -3227,7 +3353,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>7</v>
@@ -3245,7 +3371,7 @@
         <v>7</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>497</v>
+        <v>532</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>7</v>
@@ -3286,7 +3412,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>7</v>
@@ -3304,7 +3430,7 @@
         <v>7</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>498</v>
+        <v>533</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>7</v>
@@ -3345,7 +3471,7 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>499</v>
+        <v>534</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>7</v>
@@ -3363,7 +3489,7 @@
         <v>7</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>500</v>
+        <v>535</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>7</v>
@@ -3404,7 +3530,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>7</v>
@@ -3422,7 +3548,7 @@
         <v>7</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>501</v>
+        <v>536</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>7</v>
@@ -3481,7 +3607,7 @@
         <v>7</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>502</v>
+        <v>537</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>7</v>
@@ -3540,7 +3666,7 @@
         <v>7</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>503</v>
+        <v>538</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>7</v>
@@ -3599,7 +3725,7 @@
         <v>7</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>504</v>
+        <v>539</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>7</v>
@@ -3658,7 +3784,7 @@
         <v>7</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>505</v>
+        <v>540</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>7</v>
@@ -3717,7 +3843,7 @@
         <v>7</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>506</v>
+        <v>541</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>7</v>
@@ -3776,7 +3902,7 @@
         <v>7</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>507</v>
+        <v>542</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>7</v>
@@ -3835,7 +3961,7 @@
         <v>7</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>508</v>
+        <v>543</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>7</v>
@@ -3894,7 +4020,7 @@
         <v>7</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>509</v>
+        <v>544</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>7</v>
@@ -3953,7 +4079,7 @@
         <v>7</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>510</v>
+        <v>545</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>7</v>
@@ -4012,7 +4138,7 @@
         <v>7</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>511</v>
+        <v>546</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>7</v>
@@ -4071,7 +4197,7 @@
         <v>7</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>512</v>
+        <v>547</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>7</v>
@@ -4130,7 +4256,7 @@
         <v>7</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>513</v>
+        <v>548</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>7</v>
@@ -4189,7 +4315,7 @@
         <v>7</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>514</v>
+        <v>549</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>7</v>
@@ -4248,7 +4374,7 @@
         <v>7</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>515</v>
+        <v>550</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>7</v>
@@ -4307,7 +4433,7 @@
         <v>7</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>516</v>
+        <v>551</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>7</v>
@@ -4366,7 +4492,7 @@
         <v>7</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>517</v>
+        <v>552</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>7</v>
@@ -4425,7 +4551,7 @@
         <v>7</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>518</v>
+        <v>553</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>7</v>
@@ -4484,7 +4610,7 @@
         <v>7</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>7</v>
@@ -4543,7 +4669,7 @@
         <v>7</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>520</v>
+        <v>555</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>7</v>
@@ -4602,7 +4728,7 @@
         <v>7</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>521</v>
+        <v>556</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>7</v>
@@ -4661,7 +4787,7 @@
         <v>7</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>522</v>
+        <v>557</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>7</v>
@@ -4720,7 +4846,7 @@
         <v>7</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>523</v>
+        <v>558</v>
       </c>
       <c r="H43" s="4" t="s">
         <v>7</v>
@@ -4779,7 +4905,7 @@
         <v>7</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>523</v>
+        <v>558</v>
       </c>
       <c r="H44" s="4" t="s">
         <v>7</v>
@@ -4838,7 +4964,7 @@
         <v>7</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>524</v>
+        <v>559</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>7</v>
@@ -4897,7 +5023,7 @@
         <v>7</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>525</v>
+        <v>560</v>
       </c>
       <c r="H46" s="4" t="s">
         <v>7</v>
@@ -4956,7 +5082,7 @@
         <v>7</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="H47" s="4" t="s">
         <v>7</v>
@@ -5015,7 +5141,7 @@
         <v>7</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>527</v>
+        <v>562</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>7</v>
@@ -5074,7 +5200,7 @@
         <v>7</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="H49" s="4" t="s">
         <v>7</v>
@@ -5133,7 +5259,7 @@
         <v>7</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>7</v>
@@ -5192,7 +5318,7 @@
         <v>7</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>530</v>
+        <v>565</v>
       </c>
       <c r="H51" s="4" t="s">
         <v>7</v>
@@ -5251,7 +5377,7 @@
         <v>7</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
       <c r="H52" s="4" t="s">
         <v>7</v>
@@ -5310,7 +5436,7 @@
         <v>7</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
       <c r="H53" s="4" t="s">
         <v>7</v>
@@ -5369,7 +5495,7 @@
         <v>7</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>533</v>
+        <v>568</v>
       </c>
       <c r="H54" s="4" t="s">
         <v>7</v>
@@ -5428,7 +5554,7 @@
         <v>7</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>534</v>
+        <v>569</v>
       </c>
       <c r="H55" s="4" t="s">
         <v>7</v>
@@ -5487,7 +5613,7 @@
         <v>7</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>535</v>
+        <v>570</v>
       </c>
       <c r="H56" s="4" t="s">
         <v>7</v>
@@ -5546,7 +5672,7 @@
         <v>7</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>536</v>
+        <v>571</v>
       </c>
       <c r="H57" s="4" t="s">
         <v>7</v>
@@ -5605,7 +5731,7 @@
         <v>7</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>537</v>
+        <v>572</v>
       </c>
       <c r="H58" s="4" t="s">
         <v>7</v>
@@ -5664,7 +5790,7 @@
         <v>7</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>538</v>
+        <v>573</v>
       </c>
       <c r="H59" s="4" t="s">
         <v>7</v>
@@ -5723,7 +5849,7 @@
         <v>7</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>539</v>
+        <v>574</v>
       </c>
       <c r="H60" s="4" t="s">
         <v>7</v>
@@ -5782,7 +5908,7 @@
         <v>7</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>540</v>
+        <v>575</v>
       </c>
       <c r="H61" s="4" t="s">
         <v>7</v>
@@ -5841,7 +5967,7 @@
         <v>7</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>541</v>
+        <v>576</v>
       </c>
       <c r="H62" s="4" t="s">
         <v>7</v>
@@ -5900,7 +6026,7 @@
         <v>7</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>542</v>
+        <v>577</v>
       </c>
       <c r="H63" s="4" t="s">
         <v>7</v>
@@ -5959,7 +6085,7 @@
         <v>7</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>543</v>
+        <v>578</v>
       </c>
       <c r="H64" s="4" t="s">
         <v>7</v>
@@ -6018,7 +6144,7 @@
         <v>7</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>544</v>
+        <v>579</v>
       </c>
       <c r="H65" s="4" t="s">
         <v>7</v>
@@ -6077,7 +6203,7 @@
         <v>7</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>545</v>
+        <v>580</v>
       </c>
       <c r="H66" s="4" t="s">
         <v>7</v>
@@ -6136,7 +6262,7 @@
         <v>7</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>546</v>
+        <v>581</v>
       </c>
       <c r="H67" s="4" t="s">
         <v>7</v>
@@ -6195,7 +6321,7 @@
         <v>7</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>547</v>
+        <v>582</v>
       </c>
       <c r="H68" s="4" t="s">
         <v>7</v>
@@ -6254,7 +6380,7 @@
         <v>7</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>548</v>
+        <v>583</v>
       </c>
       <c r="H69" s="4" t="s">
         <v>7</v>
@@ -6313,7 +6439,7 @@
         <v>7</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>549</v>
+        <v>584</v>
       </c>
       <c r="H70" s="4" t="s">
         <v>7</v>
@@ -6372,7 +6498,7 @@
         <v>7</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>550</v>
+        <v>585</v>
       </c>
       <c r="H71" s="4" t="s">
         <v>7</v>
@@ -6431,7 +6557,7 @@
         <v>7</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>551</v>
+        <v>586</v>
       </c>
       <c r="H72" s="4" t="s">
         <v>7</v>
@@ -6490,7 +6616,7 @@
         <v>7</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>552</v>
+        <v>587</v>
       </c>
       <c r="H73" s="4" t="s">
         <v>7</v>
@@ -6549,7 +6675,7 @@
         <v>7</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>553</v>
+        <v>588</v>
       </c>
       <c r="H74" s="4" t="s">
         <v>7</v>
@@ -6608,7 +6734,7 @@
         <v>7</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>554</v>
+        <v>589</v>
       </c>
       <c r="H75" s="4" t="s">
         <v>7</v>
@@ -6667,7 +6793,7 @@
         <v>7</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>555</v>
+        <v>590</v>
       </c>
       <c r="H76" s="4" t="s">
         <v>7</v>
@@ -6726,7 +6852,7 @@
         <v>7</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>556</v>
+        <v>591</v>
       </c>
       <c r="H77" s="4" t="s">
         <v>7</v>
@@ -6785,7 +6911,7 @@
         <v>7</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>557</v>
+        <v>592</v>
       </c>
       <c r="H78" s="4" t="s">
         <v>7</v>
@@ -6844,7 +6970,7 @@
         <v>7</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>558</v>
+        <v>593</v>
       </c>
       <c r="H79" s="4" t="s">
         <v>7</v>
@@ -6903,7 +7029,7 @@
         <v>7</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>559</v>
+        <v>594</v>
       </c>
       <c r="H80" s="4" t="s">
         <v>7</v>
@@ -6962,7 +7088,7 @@
         <v>7</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>560</v>
+        <v>595</v>
       </c>
       <c r="H81" s="4" t="s">
         <v>7</v>
@@ -7021,7 +7147,7 @@
         <v>7</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>561</v>
+        <v>596</v>
       </c>
       <c r="H82" s="4" t="s">
         <v>7</v>
@@ -7080,7 +7206,7 @@
         <v>7</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>562</v>
+        <v>597</v>
       </c>
       <c r="H83" s="4" t="s">
         <v>7</v>
@@ -7139,7 +7265,7 @@
         <v>7</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>563</v>
+        <v>598</v>
       </c>
       <c r="H84" s="4" t="s">
         <v>7</v>
@@ -7198,7 +7324,7 @@
         <v>7</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>564</v>
+        <v>599</v>
       </c>
       <c r="H85" s="4" t="s">
         <v>7</v>
@@ -7257,7 +7383,7 @@
         <v>7</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>565</v>
+        <v>600</v>
       </c>
       <c r="H86" s="4" t="s">
         <v>7</v>
@@ -7316,7 +7442,7 @@
         <v>7</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>566</v>
+        <v>601</v>
       </c>
       <c r="H87" s="4" t="s">
         <v>7</v>
@@ -7375,7 +7501,7 @@
         <v>7</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>567</v>
+        <v>602</v>
       </c>
       <c r="H88" s="4" t="s">
         <v>7</v>
@@ -7434,7 +7560,7 @@
         <v>7</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>568</v>
+        <v>603</v>
       </c>
       <c r="H89" s="4" t="s">
         <v>7</v>
@@ -7493,7 +7619,7 @@
         <v>7</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>569</v>
+        <v>604</v>
       </c>
       <c r="H90" s="4" t="s">
         <v>7</v>
@@ -7552,7 +7678,7 @@
         <v>7</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>570</v>
+        <v>605</v>
       </c>
       <c r="H91" s="4" t="s">
         <v>7</v>
@@ -7611,7 +7737,7 @@
         <v>7</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>571</v>
+        <v>606</v>
       </c>
       <c r="H92" s="4" t="s">
         <v>7</v>
@@ -7670,7 +7796,7 @@
         <v>7</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>572</v>
+        <v>607</v>
       </c>
       <c r="H93" s="4" t="s">
         <v>7</v>
@@ -7729,7 +7855,7 @@
         <v>7</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>573</v>
+        <v>608</v>
       </c>
       <c r="H94" s="4" t="s">
         <v>7</v>
@@ -7788,7 +7914,7 @@
         <v>7</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>574</v>
+        <v>609</v>
       </c>
       <c r="H95" s="4" t="s">
         <v>7</v>
@@ -7847,7 +7973,7 @@
         <v>7</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>575</v>
+        <v>610</v>
       </c>
       <c r="H96" s="4" t="s">
         <v>7</v>
@@ -7906,7 +8032,7 @@
         <v>7</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>576</v>
+        <v>611</v>
       </c>
       <c r="H97" s="4" t="s">
         <v>7</v>
@@ -7965,7 +8091,7 @@
         <v>7</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>577</v>
+        <v>612</v>
       </c>
       <c r="H98" s="4" t="s">
         <v>7</v>
@@ -8024,7 +8150,7 @@
         <v>7</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>578</v>
+        <v>613</v>
       </c>
       <c r="H99" s="4" t="s">
         <v>7</v>
@@ -8083,7 +8209,7 @@
         <v>7</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>579</v>
+        <v>614</v>
       </c>
       <c r="H100" s="4" t="s">
         <v>7</v>
@@ -8142,7 +8268,7 @@
         <v>7</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>580</v>
+        <v>615</v>
       </c>
       <c r="H101" s="4" t="s">
         <v>7</v>
@@ -8201,7 +8327,7 @@
         <v>7</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>581</v>
+        <v>616</v>
       </c>
       <c r="H102" s="4" t="s">
         <v>7</v>
@@ -8260,7 +8386,7 @@
         <v>7</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>582</v>
+        <v>617</v>
       </c>
       <c r="H103" s="4" t="s">
         <v>7</v>
@@ -8319,7 +8445,7 @@
         <v>7</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>583</v>
+        <v>618</v>
       </c>
       <c r="H104" s="4" t="s">
         <v>7</v>
@@ -8378,7 +8504,7 @@
         <v>7</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>584</v>
+        <v>619</v>
       </c>
       <c r="H105" s="4" t="s">
         <v>7</v>
@@ -8437,7 +8563,7 @@
         <v>7</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>585</v>
+        <v>620</v>
       </c>
       <c r="H106" s="4" t="s">
         <v>7</v>
@@ -8496,7 +8622,7 @@
         <v>7</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>586</v>
+        <v>621</v>
       </c>
       <c r="H107" s="4" t="s">
         <v>7</v>
@@ -8555,7 +8681,7 @@
         <v>7</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>587</v>
+        <v>622</v>
       </c>
       <c r="H108" s="4" t="s">
         <v>7</v>
@@ -8614,7 +8740,7 @@
         <v>7</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>588</v>
+        <v>623</v>
       </c>
       <c r="H109" s="4" t="s">
         <v>7</v>
@@ -8673,7 +8799,7 @@
         <v>7</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>589</v>
+        <v>624</v>
       </c>
       <c r="H110" s="4" t="s">
         <v>7</v>
@@ -8732,7 +8858,7 @@
         <v>7</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>590</v>
+        <v>625</v>
       </c>
       <c r="H111" s="4" t="s">
         <v>7</v>
@@ -8779,7 +8905,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -8806,7 +8932,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>11</v>
@@ -8815,63 +8941,63 @@
         <v>28</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>16</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>341</v>
+        <v>376</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>53</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>342</v>
+        <v>377</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>48</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>344</v>
+        <v>379</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>345</v>
+        <v>380</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>7</v>
@@ -8880,34 +9006,34 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>346</v>
+        <v>381</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>348</v>
+        <v>383</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>56</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>345</v>
+        <v>380</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>48</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>349</v>
+        <v>384</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>345</v>
+        <v>380</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>7</v>
@@ -8916,34 +9042,34 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>350</v>
+        <v>385</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>351</v>
+        <v>386</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>352</v>
+        <v>387</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>56</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>345</v>
+        <v>380</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>53</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>353</v>
+        <v>388</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>345</v>
+        <v>380</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>7</v>
@@ -8952,34 +9078,34 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>354</v>
+        <v>389</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>355</v>
+        <v>390</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>356</v>
+        <v>391</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>357</v>
+        <v>392</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>358</v>
+        <v>393</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>359</v>
+        <v>394</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>345</v>
+        <v>380</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>7</v>
@@ -8988,34 +9114,34 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>360</v>
+        <v>395</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>361</v>
+        <v>396</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>362</v>
+        <v>397</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>56</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>53</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>363</v>
+        <v>398</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>345</v>
+        <v>380</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>7</v>
@@ -9024,34 +9150,34 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>364</v>
+        <v>399</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>365</v>
+        <v>400</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>56</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>48</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>366</v>
+        <v>401</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>7</v>
@@ -9060,52 +9186,88 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>367</v>
+        <v>402</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>368</v>
+        <v>403</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>48</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>48</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>369</v>
+        <v>404</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M9" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" sqref="E2:E8">
+    <dataValidation type="list" allowBlank="1" sqref="E2:E9">
       <formula1>Lists!L2:L4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="H2:H8">
+    <dataValidation type="list" allowBlank="1" sqref="H2:H9">
       <formula1>Lists!M2:M6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="K2:K8">
+    <dataValidation type="list" allowBlank="1" sqref="K2:K9">
       <formula1>Lists!N2:N6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="M2:M8">
+    <dataValidation type="list" allowBlank="1" sqref="M2:M9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9160,147 +9322,147 @@
         <v>8</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>11</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Q1" s="5" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AC1" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AE1" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AF1" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AG1" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AH1" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AI1" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AJ1" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AK1" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AL1" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AM1" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AN1" s="5" t="s">
         <v>36</v>
       </c>
       <c r="AO1" s="5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AP1" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AQ1" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AR1" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="AS1" s="5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AT1" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>370</v>
+        <v>408</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>7</v>
@@ -9315,10 +9477,10 @@
         <v>7</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>371</v>
+        <v>409</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>7</v>
@@ -9358,10 +9520,10 @@
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>372</v>
+        <v>410</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>373</v>
+        <v>411</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>7</v>
@@ -9376,10 +9538,10 @@
         <v>7</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>374</v>
+        <v>412</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>7</v>
@@ -9429,10 +9591,10 @@
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>375</v>
+        <v>413</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>376</v>
+        <v>414</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>7</v>
@@ -9441,16 +9603,16 @@
         <v>7</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>377</v>
+        <v>415</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>378</v>
+        <v>338</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>379</v>
+        <v>416</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>380</v>
+        <v>417</v>
       </c>
       <c r="L4" s="4" t="b">
         <v>0</v>
@@ -9484,7 +9646,7 @@
         <v>7</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>381</v>
+        <v>418</v>
       </c>
       <c r="AA4" s="4">
         <v>-180</v>
@@ -9514,10 +9676,10 @@
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>380</v>
+        <v>417</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>382</v>
+        <v>419</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
@@ -9529,13 +9691,13 @@
         <v>7</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>383</v>
+        <v>420</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>378</v>
+        <v>338</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>384</v>
+        <v>421</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>7</v>
@@ -9572,7 +9734,7 @@
         <v>7</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>381</v>
+        <v>418</v>
       </c>
       <c r="AA5" s="4">
         <v>-90</v>
@@ -9602,10 +9764,10 @@
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>385</v>
+        <v>422</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>386</v>
+        <v>423</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>7</v>
@@ -9620,10 +9782,10 @@
         <v>7</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>387</v>
+        <v>424</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>7</v>
@@ -9662,7 +9824,7 @@
         <v>7</v>
       </c>
       <c r="W6" s="4" t="s">
-        <v>388</v>
+        <v>425</v>
       </c>
       <c r="X6" s="4" t="s">
         <v>7</v>
@@ -9680,10 +9842,10 @@
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>389</v>
+        <v>426</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>390</v>
+        <v>427</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>7</v>
@@ -9698,10 +9860,10 @@
         <v>7</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>391</v>
+        <v>428</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>7</v>
@@ -9758,10 +9920,10 @@
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>392</v>
+        <v>429</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>393</v>
+        <v>430</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>7</v>
@@ -9776,10 +9938,10 @@
         <v>7</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>394</v>
+        <v>431</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>7</v>
@@ -9836,10 +9998,10 @@
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>396</v>
+        <v>433</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>7</v>
@@ -9854,10 +10016,10 @@
         <v>7</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>397</v>
+        <v>434</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>7</v>
@@ -9914,10 +10076,10 @@
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>398</v>
+        <v>435</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>399</v>
+        <v>436</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>7</v>
@@ -9932,10 +10094,10 @@
         <v>7</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>400</v>
+        <v>437</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>7</v>
@@ -9992,10 +10154,10 @@
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>401</v>
+        <v>438</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>7</v>
@@ -10010,7 +10172,7 @@
         <v>7</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>7</v>
@@ -10053,10 +10215,10 @@
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>402</v>
+        <v>439</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>403</v>
+        <v>440</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>7</v>
@@ -10071,10 +10233,10 @@
         <v>7</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>404</v>
+        <v>441</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>7</v>
@@ -10089,10 +10251,10 @@
         <v>56</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q12" s="4" t="s">
         <v>7</v>
@@ -10116,10 +10278,10 @@
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>405</v>
+        <v>442</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>406</v>
+        <v>443</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>7</v>
@@ -10134,7 +10296,7 @@
         <v>7</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>7</v>
@@ -10194,10 +10356,10 @@
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>407</v>
+        <v>444</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>408</v>
+        <v>445</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>7</v>
@@ -10212,7 +10374,7 @@
         <v>7</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>7</v>
@@ -10272,10 +10434,10 @@
     </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>409</v>
+        <v>446</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>410</v>
+        <v>447</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>7</v>
@@ -10287,10 +10449,10 @@
         <v>7</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="L15" s="4" t="b">
         <v>1</v>
@@ -10310,10 +10472,10 @@
       <c r="AO15" s="4"/>
       <c r="AP15" s="4"/>
       <c r="AQ15" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AT15" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -10632,7 +10794,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z4"/>
+  <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -10894,48 +11056,99 @@
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
     </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+    </row>
   </sheetData>
   <dataValidations count="14">
-    <dataValidation type="list" allowBlank="1" sqref="G2:G4">
+    <dataValidation type="list" allowBlank="1" sqref="G2:G5">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="J2:J4">
+    <dataValidation type="list" allowBlank="1" sqref="J2:J5">
       <formula1>Lists!D2:D4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="L2:L4">
+    <dataValidation type="list" allowBlank="1" sqref="L2:L5">
       <formula1>Lists!E2:E4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="M2:M4">
+    <dataValidation type="list" allowBlank="1" sqref="M2:M5">
       <formula1>Lists!F2:F3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="N2:N4">
+    <dataValidation type="list" allowBlank="1" sqref="N2:N5">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="P2:P4">
+    <dataValidation type="list" allowBlank="1" sqref="P2:P5">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="Q2:Q4">
+    <dataValidation type="list" allowBlank="1" sqref="Q2:Q5">
       <formula1>Lists!G2:G111</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="S2:S4">
+    <dataValidation type="list" allowBlank="1" sqref="S2:S5">
       <formula1>Lists!H2:H6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="T2:T4">
+    <dataValidation type="list" allowBlank="1" sqref="T2:T5">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="U2:U4">
+    <dataValidation type="list" allowBlank="1" sqref="U2:U5">
       <formula1>Lists!I2:I4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="V2:V4">
+    <dataValidation type="list" allowBlank="1" sqref="V2:V5">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="W2:W4">
+    <dataValidation type="list" allowBlank="1" sqref="W2:W5">
       <formula1>Lists!J2:J3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="X2:X4">
+    <dataValidation type="list" allowBlank="1" sqref="X2:X5">
       <formula1>Lists!K2:K4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="Y2:Z4">
+    <dataValidation type="list" allowBlank="1" sqref="Y2:Z5">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10946,7 +11159,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT75"/>
+  <dimension ref="A1:AT87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -10990,147 +11203,147 @@
         <v>8</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>11</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Q1" s="5" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AC1" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AE1" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AF1" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AG1" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AH1" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AI1" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AJ1" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AK1" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AL1" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AM1" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AN1" s="5" t="s">
         <v>36</v>
       </c>
       <c r="AO1" s="5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AP1" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AQ1" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AR1" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="AS1" s="5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AT1" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>48</v>
@@ -11145,10 +11358,10 @@
         <v>7</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>7</v>
@@ -11190,10 +11403,10 @@
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>48</v>
@@ -11208,10 +11421,10 @@
         <v>7</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>7</v>
@@ -11256,10 +11469,10 @@
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>48</v>
@@ -11274,10 +11487,10 @@
         <v>7</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>7</v>
@@ -11322,10 +11535,10 @@
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>48</v>
@@ -11337,10 +11550,10 @@
         <v>7</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="L5" s="4" t="b">
         <v>1</v>
@@ -11360,18 +11573,18 @@
       <c r="AO5" s="4"/>
       <c r="AP5" s="4"/>
       <c r="AQ5" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AT5" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>48</v>
@@ -11386,7 +11599,7 @@
         <v>7</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>7</v>
@@ -11431,10 +11644,10 @@
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>48</v>
@@ -11449,10 +11662,10 @@
         <v>7</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>7</v>
@@ -11467,10 +11680,10 @@
         <v>48</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q7" s="4" t="s">
         <v>7</v>
@@ -11494,10 +11707,10 @@
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>48</v>
@@ -11512,10 +11725,10 @@
         <v>7</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>7</v>
@@ -11572,10 +11785,10 @@
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>48</v>
@@ -11590,10 +11803,10 @@
         <v>7</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>7</v>
@@ -11608,10 +11821,10 @@
         <v>56</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q9" s="4" t="s">
         <v>7</v>
@@ -11643,10 +11856,10 @@
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>48</v>
@@ -11658,10 +11871,10 @@
         <v>7</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="L10" s="4" t="b">
         <v>0</v>
@@ -11676,7 +11889,7 @@
         <v>7</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q10" s="4" t="s">
         <v>7</v>
@@ -11700,10 +11913,10 @@
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>53</v>
@@ -11718,7 +11931,7 @@
         <v>7</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>7</v>
@@ -11763,10 +11976,10 @@
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>53</v>
@@ -11781,10 +11994,10 @@
         <v>7</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>7</v>
@@ -11829,10 +12042,10 @@
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>53</v>
@@ -11847,10 +12060,10 @@
         <v>7</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>7</v>
@@ -11895,10 +12108,10 @@
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>53</v>
@@ -11913,10 +12126,10 @@
         <v>7</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>7</v>
@@ -11961,10 +12174,10 @@
     </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>53</v>
@@ -11976,10 +12189,10 @@
         <v>7</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="L15" s="4" t="b">
         <v>1</v>
@@ -12007,18 +12220,18 @@
       <c r="AO15" s="4"/>
       <c r="AP15" s="4"/>
       <c r="AQ15" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AT15" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>53</v>
@@ -12033,10 +12246,10 @@
         <v>7</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>7</v>
@@ -12093,10 +12306,10 @@
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>53</v>
@@ -12111,10 +12324,10 @@
         <v>7</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>7</v>
@@ -12171,10 +12384,10 @@
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>53</v>
@@ -12189,10 +12402,10 @@
         <v>7</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>7</v>
@@ -12231,10 +12444,10 @@
         <v>7</v>
       </c>
       <c r="W18" s="4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="X18" s="4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Y18" s="4"/>
       <c r="AB18" s="4"/>
@@ -12249,10 +12462,10 @@
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>53</v>
@@ -12267,10 +12480,10 @@
         <v>7</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>7</v>
@@ -12309,7 +12522,7 @@
         <v>7</v>
       </c>
       <c r="W19" s="4" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="X19" s="4" t="s">
         <v>7</v>
@@ -12327,10 +12540,10 @@
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>53</v>
@@ -12345,10 +12558,10 @@
         <v>7</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>7</v>
@@ -12398,10 +12611,10 @@
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>53</v>
@@ -12413,10 +12626,10 @@
         <v>7</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="L21" s="4" t="b">
         <v>0</v>
@@ -12428,10 +12641,10 @@
         <v>56</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q21" s="4" t="s">
         <v>7</v>
@@ -12455,10 +12668,10 @@
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>53</v>
@@ -12473,10 +12686,10 @@
         <v>7</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>7</v>
@@ -12526,10 +12739,10 @@
     </row>
     <row r="23" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>53</v>
@@ -12541,7 +12754,7 @@
         <v>7</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J23" s="4" t="s">
         <v>7</v>
@@ -12580,10 +12793,10 @@
         <v>7</v>
       </c>
       <c r="W23" s="4" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="X23" s="4" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Y23" s="4"/>
       <c r="AB23" s="4"/>
@@ -12598,10 +12811,10 @@
     </row>
     <row r="24" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>53</v>
@@ -12613,10 +12826,10 @@
         <v>7</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="L24" s="4" t="b">
         <v>0</v>
@@ -12636,18 +12849,18 @@
       <c r="AO24" s="4"/>
       <c r="AP24" s="4"/>
       <c r="AQ24" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AT24" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>53</v>
@@ -12662,7 +12875,7 @@
         <v>7</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="J25" s="4" t="s">
         <v>7</v>
@@ -12715,10 +12928,10 @@
     </row>
     <row r="26" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>53</v>
@@ -12730,7 +12943,7 @@
         <v>7</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J26" s="4" t="s">
         <v>7</v>
@@ -12787,10 +13000,10 @@
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>53</v>
@@ -12805,7 +13018,7 @@
         <v>7</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J27" s="4" t="s">
         <v>7</v>
@@ -12856,10 +13069,10 @@
     </row>
     <row r="28" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>53</v>
@@ -12874,10 +13087,10 @@
         <v>7</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="K28" s="4" t="s">
         <v>7</v>
@@ -12934,10 +13147,10 @@
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>53</v>
@@ -12952,10 +13165,10 @@
         <v>7</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="K29" s="4" t="s">
         <v>7</v>
@@ -13012,10 +13225,10 @@
     </row>
     <row r="30" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>53</v>
@@ -13030,10 +13243,10 @@
         <v>7</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="K30" s="4" t="s">
         <v>7</v>
@@ -13090,10 +13303,10 @@
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>53</v>
@@ -13108,10 +13321,10 @@
         <v>7</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="K31" s="4" t="s">
         <v>7</v>
@@ -13168,10 +13381,10 @@
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>56</v>
@@ -13186,10 +13399,10 @@
         <v>7</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="K32" s="4" t="s">
         <v>7</v>
@@ -13210,7 +13423,7 @@
         <v>7</v>
       </c>
       <c r="Q32" s="4" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="R32" s="4" t="s">
         <v>7</v>
@@ -13234,10 +13447,10 @@
     </row>
     <row r="33" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>56</v>
@@ -13252,10 +13465,10 @@
         <v>7</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="K33" s="4" t="s">
         <v>7</v>
@@ -13297,10 +13510,10 @@
     </row>
     <row r="34" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>56</v>
@@ -13315,10 +13528,10 @@
         <v>7</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="K34" s="4" t="s">
         <v>7</v>
@@ -13363,10 +13576,10 @@
     </row>
     <row r="35" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>56</v>
@@ -13381,10 +13594,10 @@
         <v>7</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="K35" s="4" t="s">
         <v>7</v>
@@ -13441,10 +13654,10 @@
     </row>
     <row r="36" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>56</v>
@@ -13459,10 +13672,10 @@
         <v>7</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K36" s="4" t="s">
         <v>7</v>
@@ -13498,13 +13711,13 @@
         <v>7</v>
       </c>
       <c r="V36" s="4" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="W36" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X36" s="4" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Y36" s="4"/>
       <c r="AB36" s="4"/>
@@ -13519,10 +13732,10 @@
     </row>
     <row r="37" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>56</v>
@@ -13534,10 +13747,10 @@
         <v>7</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K37" s="4" t="s">
         <v>7</v>
@@ -13560,18 +13773,18 @@
       <c r="AO37" s="4"/>
       <c r="AP37" s="4"/>
       <c r="AQ37" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AT37" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>56</v>
@@ -13586,10 +13799,10 @@
         <v>7</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K38" s="4" t="s">
         <v>7</v>
@@ -13646,10 +13859,10 @@
     </row>
     <row r="39" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>56</v>
@@ -13664,10 +13877,10 @@
         <v>7</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="K39" s="4" t="s">
         <v>7</v>
@@ -13703,7 +13916,7 @@
         <v>7</v>
       </c>
       <c r="V39" s="4" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="W39" s="4" t="s">
         <v>7</v>
@@ -13724,10 +13937,10 @@
     </row>
     <row r="40" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>56</v>
@@ -13736,7 +13949,7 @@
         <v>57</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
@@ -13751,16 +13964,16 @@
       <c r="AN40" s="4"/>
       <c r="AO40" s="4"/>
       <c r="AP40" s="4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AQ40" s="4"/>
     </row>
     <row r="41" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>56</v>
@@ -13769,13 +13982,13 @@
         <v>57</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
@@ -13799,10 +14012,10 @@
     </row>
     <row r="42" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>56</v>
@@ -13817,7 +14030,7 @@
         <v>7</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J42" s="4" t="s">
         <v>7</v>
@@ -13859,7 +14072,7 @@
         <v>7</v>
       </c>
       <c r="W42" s="4" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="X42" s="4" t="s">
         <v>7</v>
@@ -13877,10 +14090,10 @@
     </row>
     <row r="43" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>56</v>
@@ -13895,10 +14108,10 @@
         <v>7</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="K43" s="4" t="s">
         <v>7</v>
@@ -13955,10 +14168,10 @@
     </row>
     <row r="44" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>56</v>
@@ -13973,10 +14186,10 @@
         <v>7</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="K44" s="4" t="s">
         <v>7</v>
@@ -14033,10 +14246,10 @@
     </row>
     <row r="45" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>56</v>
@@ -14051,10 +14264,10 @@
         <v>7</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="K45" s="4" t="s">
         <v>7</v>
@@ -14102,10 +14315,10 @@
     </row>
     <row r="46" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>56</v>
@@ -14120,10 +14333,10 @@
         <v>7</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="K46" s="4" t="s">
         <v>7</v>
@@ -14147,14 +14360,14 @@
         <v>7</v>
       </c>
       <c r="R46" s="4" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="V46" s="4"/>
       <c r="W46" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X46" s="4" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Y46" s="4"/>
       <c r="AB46" s="4"/>
@@ -14169,10 +14382,10 @@
     </row>
     <row r="47" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>56</v>
@@ -14187,10 +14400,10 @@
         <v>7</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="K47" s="4" t="s">
         <v>7</v>
@@ -14214,14 +14427,14 @@
         <v>7</v>
       </c>
       <c r="R47" s="4" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="V47" s="4"/>
       <c r="W47" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X47" s="4" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Y47" s="4"/>
       <c r="AB47" s="4"/>
@@ -14236,10 +14449,10 @@
     </row>
     <row r="48" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>56</v>
@@ -14254,10 +14467,10 @@
         <v>7</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="K48" s="4" t="s">
         <v>7</v>
@@ -14305,10 +14518,10 @@
     </row>
     <row r="49" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>56</v>
@@ -14323,10 +14536,10 @@
         <v>7</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="K49" s="4" t="s">
         <v>7</v>
@@ -14350,14 +14563,14 @@
         <v>7</v>
       </c>
       <c r="R49" s="4" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="V49" s="4"/>
       <c r="W49" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X49" s="4" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Y49" s="4"/>
       <c r="AB49" s="4"/>
@@ -14372,10 +14585,10 @@
     </row>
     <row r="50" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>56</v>
@@ -14390,10 +14603,10 @@
         <v>7</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K50" s="4" t="s">
         <v>7</v>
@@ -14417,14 +14630,14 @@
         <v>7</v>
       </c>
       <c r="R50" s="4" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="V50" s="4"/>
       <c r="W50" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X50" s="4" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Y50" s="4"/>
       <c r="AB50" s="4"/>
@@ -14439,10 +14652,10 @@
     </row>
     <row r="51" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>56</v>
@@ -14457,10 +14670,10 @@
         <v>7</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="K51" s="4" t="s">
         <v>7</v>
@@ -14484,14 +14697,14 @@
         <v>7</v>
       </c>
       <c r="R51" s="4" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="V51" s="4"/>
       <c r="W51" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X51" s="4" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Y51" s="4"/>
       <c r="AB51" s="4"/>
@@ -14506,10 +14719,10 @@
     </row>
     <row r="52" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>56</v>
@@ -14524,10 +14737,10 @@
         <v>7</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K52" s="4" t="s">
         <v>7</v>
@@ -14575,10 +14788,10 @@
     </row>
     <row r="53" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>56</v>
@@ -14593,10 +14806,10 @@
         <v>7</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="K53" s="4" t="s">
         <v>7</v>
@@ -14632,13 +14845,13 @@
         <v>7</v>
       </c>
       <c r="V53" s="4" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="W53" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X53" s="4" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Y53" s="4"/>
       <c r="AB53" s="4"/>
@@ -14653,10 +14866,10 @@
     </row>
     <row r="54" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>56</v>
@@ -14671,10 +14884,10 @@
         <v>7</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="K54" s="4" t="s">
         <v>7</v>
@@ -14710,13 +14923,13 @@
         <v>7</v>
       </c>
       <c r="V54" s="4" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="W54" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X54" s="4" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Y54" s="4"/>
       <c r="AB54" s="4"/>
@@ -14731,10 +14944,10 @@
     </row>
     <row r="55" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>56</v>
@@ -14749,10 +14962,10 @@
         <v>7</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="K55" s="4" t="s">
         <v>7</v>
@@ -14788,13 +15001,13 @@
         <v>7</v>
       </c>
       <c r="V55" s="4" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="W55" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X55" s="4" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Y55" s="4"/>
       <c r="AB55" s="4"/>
@@ -14809,10 +15022,10 @@
     </row>
     <row r="56" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>56</v>
@@ -14827,10 +15040,10 @@
         <v>7</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="K56" s="4" t="s">
         <v>7</v>
@@ -14866,13 +15079,13 @@
         <v>7</v>
       </c>
       <c r="V56" s="4" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="W56" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X56" s="4" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Y56" s="4"/>
       <c r="AB56" s="4"/>
@@ -14887,10 +15100,10 @@
     </row>
     <row r="57" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>56</v>
@@ -14905,10 +15118,10 @@
         <v>7</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="K57" s="4" t="s">
         <v>7</v>
@@ -14944,13 +15157,13 @@
         <v>7</v>
       </c>
       <c r="V57" s="4" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="W57" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X57" s="4" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Y57" s="4"/>
       <c r="AB57" s="4"/>
@@ -14965,10 +15178,10 @@
     </row>
     <row r="58" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>56</v>
@@ -14977,13 +15190,13 @@
         <v>57</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="L58" s="4"/>
       <c r="M58" s="4"/>
@@ -15007,10 +15220,10 @@
     </row>
     <row r="59" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>56</v>
@@ -15025,10 +15238,10 @@
         <v>7</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="K59" s="4" t="s">
         <v>7</v>
@@ -15067,7 +15280,7 @@
         <v>7</v>
       </c>
       <c r="W59" s="4" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="X59" s="4" t="s">
         <v>7</v>
@@ -15085,10 +15298,10 @@
     </row>
     <row r="60" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>56</v>
@@ -15103,10 +15316,10 @@
         <v>7</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="K60" s="4" t="s">
         <v>7</v>
@@ -15163,10 +15376,10 @@
     </row>
     <row r="61" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>56</v>
@@ -15181,10 +15394,10 @@
         <v>7</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K61" s="4" t="s">
         <v>7</v>
@@ -15199,10 +15412,10 @@
         <v>56</v>
       </c>
       <c r="O61" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="P61" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q61" s="4" t="s">
         <v>7</v>
@@ -15226,10 +15439,10 @@
     </row>
     <row r="62" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>56</v>
@@ -15244,10 +15457,10 @@
         <v>7</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="K62" s="4" t="s">
         <v>7</v>
@@ -15304,10 +15517,10 @@
     </row>
     <row r="63" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>56</v>
@@ -15322,10 +15535,10 @@
         <v>7</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="K63" s="4" t="s">
         <v>7</v>
@@ -15373,10 +15586,10 @@
     </row>
     <row r="64" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>56</v>
@@ -15391,10 +15604,10 @@
         <v>7</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="K64" s="4" t="s">
         <v>7</v>
@@ -15418,14 +15631,14 @@
         <v>7</v>
       </c>
       <c r="R64" s="4" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="V64" s="4"/>
       <c r="W64" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X64" s="4" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Y64" s="4"/>
       <c r="AB64" s="4"/>
@@ -15440,10 +15653,10 @@
     </row>
     <row r="65" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>56</v>
@@ -15458,10 +15671,10 @@
         <v>7</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="K65" s="4" t="s">
         <v>7</v>
@@ -15485,14 +15698,14 @@
         <v>7</v>
       </c>
       <c r="R65" s="4" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="V65" s="4"/>
       <c r="W65" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X65" s="4" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Y65" s="4"/>
       <c r="AB65" s="4"/>
@@ -15507,10 +15720,10 @@
     </row>
     <row r="66" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>56</v>
@@ -15525,10 +15738,10 @@
         <v>7</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="K66" s="4" t="s">
         <v>7</v>
@@ -15552,14 +15765,14 @@
         <v>7</v>
       </c>
       <c r="R66" s="4" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="V66" s="4"/>
       <c r="W66" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X66" s="4" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Y66" s="4"/>
       <c r="AB66" s="4"/>
@@ -15574,10 +15787,10 @@
     </row>
     <row r="67" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>56</v>
@@ -15592,10 +15805,10 @@
         <v>7</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="K67" s="4" t="s">
         <v>7</v>
@@ -15619,14 +15832,14 @@
         <v>7</v>
       </c>
       <c r="R67" s="4" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="V67" s="4"/>
       <c r="W67" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X67" s="4" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Y67" s="4"/>
       <c r="AB67" s="4"/>
@@ -15641,10 +15854,10 @@
     </row>
     <row r="68" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>56</v>
@@ -15659,10 +15872,10 @@
         <v>7</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K68" s="4" t="s">
         <v>7</v>
@@ -15686,7 +15899,7 @@
         <v>7</v>
       </c>
       <c r="R68" s="4" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="V68" s="4"/>
       <c r="W68" s="4" t="s">
@@ -15708,10 +15921,10 @@
     </row>
     <row r="69" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>56</v>
@@ -15726,10 +15939,10 @@
         <v>7</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K69" s="4" t="s">
         <v>7</v>
@@ -15777,10 +15990,10 @@
     </row>
     <row r="70" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>312</v>
+        <v>265</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>56</v>
@@ -15795,10 +16008,10 @@
         <v>7</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K70" s="4" t="s">
         <v>7</v>
@@ -15834,13 +16047,13 @@
         <v>7</v>
       </c>
       <c r="V70" s="4" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="W70" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X70" s="4" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Y70" s="4"/>
       <c r="AB70" s="4"/>
@@ -15855,10 +16068,10 @@
     </row>
     <row r="71" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>56</v>
@@ -15873,10 +16086,10 @@
         <v>7</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K71" s="4" t="s">
         <v>7</v>
@@ -15912,13 +16125,13 @@
         <v>7</v>
       </c>
       <c r="V71" s="4" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="W71" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X71" s="4" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Y71" s="4"/>
       <c r="AB71" s="4"/>
@@ -15933,10 +16146,10 @@
     </row>
     <row r="72" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>56</v>
@@ -15951,10 +16164,10 @@
         <v>7</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K72" s="4" t="s">
         <v>7</v>
@@ -15990,13 +16203,13 @@
         <v>7</v>
       </c>
       <c r="V72" s="4" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="W72" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X72" s="4" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Y72" s="4"/>
       <c r="AB72" s="4"/>
@@ -16011,10 +16224,10 @@
     </row>
     <row r="73" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>56</v>
@@ -16029,10 +16242,10 @@
         <v>7</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="K73" s="4" t="s">
         <v>7</v>
@@ -16068,13 +16281,13 @@
         <v>7</v>
       </c>
       <c r="V73" s="4" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="W73" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X73" s="4" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Y73" s="4"/>
       <c r="AB73" s="4"/>
@@ -16089,10 +16302,10 @@
     </row>
     <row r="74" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>56</v>
@@ -16107,10 +16320,10 @@
         <v>7</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K74" s="4" t="s">
         <v>7</v>
@@ -16146,13 +16359,13 @@
         <v>7</v>
       </c>
       <c r="V74" s="4" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="W74" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X74" s="4" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Y74" s="4"/>
       <c r="AB74" s="4"/>
@@ -16167,10 +16380,10 @@
     </row>
     <row r="75" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>56</v>
@@ -16185,10 +16398,10 @@
         <v>7</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K75" s="4" t="s">
         <v>7</v>
@@ -16243,78 +16456,948 @@
       <c r="AP75" s="4"/>
       <c r="AQ75" s="4"/>
     </row>
+    <row r="76" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J76" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="K76" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L76" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M76" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N76" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O76" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P76" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q76" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R76" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V76" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X76" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y76" s="4"/>
+      <c r="AB76" s="4"/>
+      <c r="AD76" s="4"/>
+      <c r="AI76" s="4"/>
+      <c r="AJ76" s="4"/>
+      <c r="AK76" s="4"/>
+      <c r="AN76" s="4"/>
+      <c r="AO76" s="4"/>
+      <c r="AP76" s="4"/>
+      <c r="AQ76" s="4"/>
+    </row>
+    <row r="77" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J77" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K77" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L77" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M77" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N77" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O77" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P77" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q77" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V77" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X77" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y77" s="4"/>
+      <c r="AB77" s="4"/>
+      <c r="AD77" s="4"/>
+      <c r="AI77" s="4"/>
+      <c r="AJ77" s="4"/>
+      <c r="AK77" s="4"/>
+      <c r="AN77" s="4"/>
+      <c r="AO77" s="4"/>
+      <c r="AP77" s="4"/>
+      <c r="AQ77" s="4"/>
+    </row>
+    <row r="78" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J78" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="K78" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L78" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M78" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N78" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O78" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P78" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q78" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R78" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V78" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X78" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y78" s="4"/>
+      <c r="AB78" s="4"/>
+      <c r="AD78" s="4"/>
+      <c r="AI78" s="4"/>
+      <c r="AJ78" s="4"/>
+      <c r="AK78" s="4"/>
+      <c r="AN78" s="4"/>
+      <c r="AO78" s="4"/>
+      <c r="AP78" s="4"/>
+      <c r="AQ78" s="4"/>
+    </row>
+    <row r="79" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="J79" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="K79" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L79" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M79" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N79" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O79" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P79" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q79" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R79" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V79" s="4"/>
+      <c r="W79" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X79" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y79" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z79" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA79" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB79" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC79" s="4">
+        <v>5</v>
+      </c>
+      <c r="AD79" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE79" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF79" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI79" s="4"/>
+      <c r="AJ79" s="4"/>
+      <c r="AK79" s="4"/>
+      <c r="AN79" s="4"/>
+      <c r="AO79" s="4"/>
+      <c r="AP79" s="4"/>
+      <c r="AQ79" s="4"/>
+    </row>
+    <row r="80" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="J80" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="K80" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L80" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M80" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N80" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O80" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P80" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q80" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R80" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S80" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T80" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U80" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V80" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="W80" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X80" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y80" s="4"/>
+      <c r="AB80" s="4"/>
+      <c r="AD80" s="4"/>
+      <c r="AI80" s="4"/>
+      <c r="AJ80" s="4"/>
+      <c r="AK80" s="4"/>
+      <c r="AN80" s="4"/>
+      <c r="AO80" s="4"/>
+      <c r="AP80" s="4"/>
+      <c r="AQ80" s="4"/>
+    </row>
+    <row r="81" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="J81" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="K81" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L81" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M81" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N81" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O81" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P81" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q81" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R81" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V81" s="4"/>
+      <c r="W81" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X81" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y81" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="Z81" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA81" s="4">
+        <v>18</v>
+      </c>
+      <c r="AB81" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC81" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD81" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE81" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF81" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI81" s="4"/>
+      <c r="AJ81" s="4"/>
+      <c r="AK81" s="4"/>
+      <c r="AN81" s="4"/>
+      <c r="AO81" s="4"/>
+      <c r="AP81" s="4"/>
+      <c r="AQ81" s="4"/>
+    </row>
+    <row r="82" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="J82" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="K82" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L82" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M82" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N82" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O82" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P82" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q82" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R82" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S82" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T82" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U82" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V82" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W82" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X82" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y82" s="4"/>
+      <c r="AB82" s="4"/>
+      <c r="AD82" s="4"/>
+      <c r="AI82" s="4"/>
+      <c r="AJ82" s="4"/>
+      <c r="AK82" s="4"/>
+      <c r="AN82" s="4"/>
+      <c r="AO82" s="4"/>
+      <c r="AP82" s="4"/>
+      <c r="AQ82" s="4"/>
+    </row>
+    <row r="83" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="J83" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="K83" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L83" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M83" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N83" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O83" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P83" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q83" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R83" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S83" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T83" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U83" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V83" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W83" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X83" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y83" s="4"/>
+      <c r="AB83" s="4"/>
+      <c r="AD83" s="4"/>
+      <c r="AI83" s="4"/>
+      <c r="AJ83" s="4"/>
+      <c r="AK83" s="4"/>
+      <c r="AN83" s="4"/>
+      <c r="AO83" s="4"/>
+      <c r="AP83" s="4"/>
+      <c r="AQ83" s="4"/>
+    </row>
+    <row r="84" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="J84" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="K84" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L84" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M84" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N84" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O84" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P84" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q84" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R84" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S84" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T84" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U84" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V84" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W84" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X84" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y84" s="4"/>
+      <c r="AB84" s="4"/>
+      <c r="AD84" s="4"/>
+      <c r="AI84" s="4"/>
+      <c r="AJ84" s="4"/>
+      <c r="AK84" s="4"/>
+      <c r="AN84" s="4"/>
+      <c r="AO84" s="4"/>
+      <c r="AP84" s="4"/>
+      <c r="AQ84" s="4"/>
+    </row>
+    <row r="85" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="J85" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="K85" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L85" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M85" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N85" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O85" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P85" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q85" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R85" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S85" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T85" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U85" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V85" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W85" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X85" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y85" s="4"/>
+      <c r="AB85" s="4"/>
+      <c r="AD85" s="4"/>
+      <c r="AI85" s="4"/>
+      <c r="AJ85" s="4"/>
+      <c r="AK85" s="4"/>
+      <c r="AN85" s="4"/>
+      <c r="AO85" s="4"/>
+      <c r="AP85" s="4"/>
+      <c r="AQ85" s="4"/>
+    </row>
+    <row r="86" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J86" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="K86" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L86" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M86" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N86" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="O86" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="P86" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q86" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V86" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X86" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y86" s="4"/>
+      <c r="AB86" s="4"/>
+      <c r="AD86" s="4"/>
+      <c r="AI86" s="4"/>
+      <c r="AJ86" s="4"/>
+      <c r="AK86" s="4"/>
+      <c r="AN86" s="4"/>
+      <c r="AO86" s="4"/>
+      <c r="AP86" s="4"/>
+      <c r="AQ86" s="4"/>
+    </row>
+    <row r="87" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="L87" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M87" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="P87" s="4"/>
+      <c r="V87" s="4"/>
+      <c r="Y87" s="4"/>
+      <c r="AB87" s="4"/>
+      <c r="AD87" s="4"/>
+      <c r="AI87" s="4"/>
+      <c r="AJ87" s="4"/>
+      <c r="AK87" s="4"/>
+      <c r="AN87" s="4"/>
+      <c r="AO87" s="4"/>
+      <c r="AP87" s="4"/>
+      <c r="AQ87" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AT87" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="24">
-    <dataValidation type="list" allowBlank="1" sqref="AB10:AB75">
+    <dataValidation type="list" allowBlank="1" sqref="AB10:AB87">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="AB2:AB75">
+    <dataValidation type="list" allowBlank="1" sqref="AB2:AB87">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="AD10:AD75">
+    <dataValidation type="list" allowBlank="1" sqref="AD10:AD87">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="AD2:AD75">
+    <dataValidation type="list" allowBlank="1" sqref="AD2:AD87">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="AI10:AK75">
+    <dataValidation type="list" allowBlank="1" sqref="AI10:AK87">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="AI2:AK75">
+    <dataValidation type="list" allowBlank="1" sqref="AI2:AK87">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="AN10:AN75">
+    <dataValidation type="list" allowBlank="1" sqref="AN10:AN87">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="AN2:AN75">
+    <dataValidation type="list" allowBlank="1" sqref="AN2:AN87">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="AO10:AO75">
+    <dataValidation type="list" allowBlank="1" sqref="AO10:AO87">
       <formula1>Lists!Q2:Q4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="AO2:AO75">
+    <dataValidation type="list" allowBlank="1" sqref="AO2:AO87">
       <formula1>Lists!Q2:Q4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="AP10:AP75">
+    <dataValidation type="list" allowBlank="1" sqref="AP10:AP87">
       <formula1>Lists!R2:R5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="AP2:AP75">
+    <dataValidation type="list" allowBlank="1" sqref="AP2:AP87">
       <formula1>Lists!R2:R5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="AQ10:AQ75">
+    <dataValidation type="list" allowBlank="1" sqref="AQ10:AQ87">
       <formula1>Lists!S2:S4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="AQ2:AQ75">
+    <dataValidation type="list" allowBlank="1" sqref="AQ2:AQ87">
       <formula1>Lists!S2:S4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="I10:I75">
+    <dataValidation type="list" allowBlank="1" sqref="I10:I87">
       <formula1>Lists!A2:A21</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="I2:I75">
+    <dataValidation type="list" allowBlank="1" sqref="I2:I87">
       <formula1>Lists!A2:A21</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="L10:M75">
+    <dataValidation type="list" allowBlank="1" sqref="L10:M87">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="L2:M75">
+    <dataValidation type="list" allowBlank="1" sqref="L2:M87">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="P10:P75">
+    <dataValidation type="list" allowBlank="1" sqref="P10:P87">
       <formula1>Lists!L2:L4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="P2:P75">
+    <dataValidation type="list" allowBlank="1" sqref="P2:P87">
       <formula1>Lists!L2:L4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="V10:V75">
+    <dataValidation type="list" allowBlank="1" sqref="V10:V87">
       <formula1>Lists!O2:O11</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="V2:V75">
+    <dataValidation type="list" allowBlank="1" sqref="V2:V87">
       <formula1>Lists!O2:O11</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="Y10:Y75">
+    <dataValidation type="list" allowBlank="1" sqref="Y10:Y87">
       <formula1>Lists!P2:P6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="Y2:Y75">
+    <dataValidation type="list" allowBlank="1" sqref="Y2:Y87">
       <formula1>Lists!P2:P6</formula1>
     </dataValidation>
   </dataValidations>
@@ -16354,7 +17437,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>10</v>
@@ -16369,10 +17452,10 @@
         <v>28</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>37</v>
@@ -16560,139 +17643,139 @@
         <v>8</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>11</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Q1" s="5" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AC1" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AE1" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AF1" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AG1" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AH1" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AI1" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AJ1" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AK1" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AL1" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AM1" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AN1" s="5" t="s">
         <v>36</v>
       </c>
       <c r="AO1" s="5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AP1" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AQ1" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AR1" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="AS1" s="5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AT1" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">

--- a/v2/docs/FightPandemics.xlsx
+++ b/v2/docs/FightPandemics.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4240" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4273" uniqueCount="637">
   <si>
     <t>Instructions</t>
   </si>
@@ -83,6 +83,9 @@
     <t>FightPandemics</t>
   </si>
   <si>
+    <t>Nícolas de Araujo</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
@@ -548,18 +551,6 @@
     <t>Groceries/Food</t>
   </si>
   <si>
-    <t>611de7a0-8109-11ea-a764-5d61b98a5ce8</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>#model/definitions/location</t>
-  </si>
-  <si>
-    <t>6b45e040-7fae-11ea-ba73-c97a35e85484 | 6b460750-7fae-11ea-ba73-c97a35e85484 | efec52d4-7fb2-11ea-ba73-c97a35e85484</t>
-  </si>
-  <si>
     <t>9693b434-7fb2-11ea-ba73-c97a35e85484</t>
   </si>
   <si>
@@ -648,19 +639,16 @@
 This field is a **foreign key to the user in the Auth0 database**, connecting through the user_id field.</t>
   </si>
   <si>
-    <t>efec52d1-7fb2-11ea-ba73-c97a35e85484</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>User's email validated by a regex pattern.</t>
-  </si>
-  <si>
-    <t>test_user@fightpandemics.com</t>
-  </si>
-  <si>
     <t>4a8675d0-80ea-11ea-a764-5d61b98a5ce8</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>#model/definitions/location</t>
+  </si>
+  <si>
+    <t>6b45e040-7fae-11ea-ba73-c97a35e85484 | 6b460750-7fae-11ea-ba73-c97a35e85484 | efec52d4-7fb2-11ea-ba73-c97a35e85484</t>
   </si>
   <si>
     <t>47c64130-80e6-11ea-a764-5d61b98a5ce8</t>
@@ -1026,6 +1014,55 @@
   </si>
   <si>
     <t>Field to inidicate the language used by the organization.</t>
+  </si>
+  <si>
+    <t>54fd06d0-8bc8-11ea-8bf8-cf9318f71002</t>
+  </si>
+  <si>
+    <t>anyOf</t>
+  </si>
+  <si>
+    <t>553729a1-8bc8-11ea-8bf8-cf9318f71002</t>
+  </si>
+  <si>
+    <t>anyOf.subschema</t>
+  </si>
+  <si>
+    <t>emailPK</t>
+  </si>
+  <si>
+    <t>Case where the user comes from social networks with a registration that uses email. In this case, the email field is required. This case covers the great majority of currently supported social network authentications.</t>
+  </si>
+  <si>
+    <t>efec52d1-7fb2-11ea-ba73-c97a35e85484</t>
+  </si>
+  <si>
+    <t>anyOf.subschema.email</t>
+  </si>
+  <si>
+    <t>User's email validated by a regex pattern.</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>test_user@fightpandemics.com</t>
+  </si>
+  <si>
+    <t>6d920e70-8bc8-11ea-8bf8-cf9318f71002</t>
+  </si>
+  <si>
+    <t>phonePK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Case where the user comes from social networks with a registration that allows the use of only the phone. In this case, the phone field is required, and the email isn't. 
+An example of ocial network that falls into this case is Twitter.</t>
+  </si>
+  <si>
+    <t>720aec60-8bc8-11ea-8bf8-cf9318f71002</t>
+  </si>
+  <si>
+    <t>anyOf.subschema.phone</t>
   </si>
   <si>
     <t>939a9470-84c0-11ea-929b-770c2f9d8801</t>
@@ -1383,7 +1420,7 @@
     <t>96938d21-7fb2-11ea-ba73-c97a35e85484</t>
   </si>
   <si>
-    <t>author.authorId</t>
+    <t>author.id</t>
   </si>
   <si>
     <t>Foreign key to the user who created the post.</t>
@@ -1392,13 +1429,13 @@
     <t>a5ed67f0-811f-11ea-a764-5d61b98a5ce8</t>
   </si>
   <si>
-    <t>author.authorName</t>
+    <t>author.name</t>
   </si>
   <si>
     <t>eb7fe190-811e-11ea-a764-5d61b98a5ce8</t>
   </si>
   <si>
-    <t>author.authorType</t>
+    <t>author.type</t>
   </si>
   <si>
     <t>e2868490-811e-11ea-a764-5d61b98a5ce8</t>
@@ -1516,9 +1553,6 @@
   </si>
   <si>
     <t>chunks</t>
-  </si>
-  <si>
-    <t>anyOf</t>
   </si>
   <si>
     <t>v3.2</t>
@@ -2350,105 +2384,105 @@
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>7</v>
@@ -2460,139 +2494,139 @@
         <v>7</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>485</v>
+        <v>328</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>7</v>
@@ -2604,10 +2638,10 @@
         <v>7</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>7</v>
@@ -2622,22 +2656,22 @@
         <v>7</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="Q5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="S5" s="4" t="s">
         <v>7</v>
@@ -2645,13 +2679,13 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>7</v>
@@ -2663,10 +2697,10 @@
         <v>7</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>7</v>
@@ -2681,16 +2715,16 @@
         <v>7</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>206</v>
+        <v>336</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="Q6" s="4" t="s">
         <v>7</v>
@@ -2704,13 +2738,13 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>7</v>
@@ -2722,7 +2756,7 @@
         <v>7</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>7</v>
@@ -2746,7 +2780,7 @@
         <v>7</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>7</v>
@@ -2763,13 +2797,13 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>7</v>
@@ -2781,7 +2815,7 @@
         <v>7</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>7</v>
@@ -2805,7 +2839,7 @@
         <v>7</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>7</v>
@@ -2822,7 +2856,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>7</v>
@@ -2840,7 +2874,7 @@
         <v>7</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>7</v>
@@ -2864,7 +2898,7 @@
         <v>7</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>7</v>
@@ -2881,7 +2915,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>7</v>
@@ -2899,7 +2933,7 @@
         <v>7</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>7</v>
@@ -2923,7 +2957,7 @@
         <v>7</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>7</v>
@@ -2940,7 +2974,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>7</v>
@@ -2958,7 +2992,7 @@
         <v>7</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>7</v>
@@ -2982,7 +3016,7 @@
         <v>7</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>7</v>
@@ -2999,7 +3033,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>7</v>
@@ -3017,7 +3051,7 @@
         <v>7</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>7</v>
@@ -3058,7 +3092,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>7</v>
@@ -3076,7 +3110,7 @@
         <v>7</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>7</v>
@@ -3117,7 +3151,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>7</v>
@@ -3135,7 +3169,7 @@
         <v>7</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>7</v>
@@ -3176,7 +3210,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>526</v>
+        <v>537</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>7</v>
@@ -3194,7 +3228,7 @@
         <v>7</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>7</v>
@@ -3235,7 +3269,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>7</v>
@@ -3253,7 +3287,7 @@
         <v>7</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>7</v>
@@ -3294,7 +3328,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>7</v>
@@ -3312,7 +3346,7 @@
         <v>7</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>7</v>
@@ -3353,7 +3387,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>7</v>
@@ -3371,7 +3405,7 @@
         <v>7</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>7</v>
@@ -3412,7 +3446,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>7</v>
@@ -3430,7 +3464,7 @@
         <v>7</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>7</v>
@@ -3471,7 +3505,7 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>7</v>
@@ -3489,7 +3523,7 @@
         <v>7</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>7</v>
@@ -3530,7 +3564,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>7</v>
@@ -3548,7 +3582,7 @@
         <v>7</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>7</v>
@@ -3607,7 +3641,7 @@
         <v>7</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>537</v>
+        <v>548</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>7</v>
@@ -3666,7 +3700,7 @@
         <v>7</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>7</v>
@@ -3725,7 +3759,7 @@
         <v>7</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>7</v>
@@ -3784,7 +3818,7 @@
         <v>7</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>540</v>
+        <v>551</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>7</v>
@@ -3843,7 +3877,7 @@
         <v>7</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>7</v>
@@ -3902,7 +3936,7 @@
         <v>7</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>7</v>
@@ -3961,7 +3995,7 @@
         <v>7</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>7</v>
@@ -4020,7 +4054,7 @@
         <v>7</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>7</v>
@@ -4079,7 +4113,7 @@
         <v>7</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>7</v>
@@ -4138,7 +4172,7 @@
         <v>7</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>546</v>
+        <v>557</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>7</v>
@@ -4197,7 +4231,7 @@
         <v>7</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>547</v>
+        <v>558</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>7</v>
@@ -4256,7 +4290,7 @@
         <v>7</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>7</v>
@@ -4315,7 +4349,7 @@
         <v>7</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>7</v>
@@ -4374,7 +4408,7 @@
         <v>7</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>7</v>
@@ -4433,7 +4467,7 @@
         <v>7</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>7</v>
@@ -4492,7 +4526,7 @@
         <v>7</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>7</v>
@@ -4551,7 +4585,7 @@
         <v>7</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>7</v>
@@ -4610,7 +4644,7 @@
         <v>7</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>7</v>
@@ -4669,7 +4703,7 @@
         <v>7</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>7</v>
@@ -4728,7 +4762,7 @@
         <v>7</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>7</v>
@@ -4787,7 +4821,7 @@
         <v>7</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>7</v>
@@ -4846,7 +4880,7 @@
         <v>7</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
       <c r="H43" s="4" t="s">
         <v>7</v>
@@ -4905,7 +4939,7 @@
         <v>7</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
       <c r="H44" s="4" t="s">
         <v>7</v>
@@ -4964,7 +4998,7 @@
         <v>7</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>559</v>
+        <v>570</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>7</v>
@@ -5023,7 +5057,7 @@
         <v>7</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>560</v>
+        <v>571</v>
       </c>
       <c r="H46" s="4" t="s">
         <v>7</v>
@@ -5082,7 +5116,7 @@
         <v>7</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>561</v>
+        <v>572</v>
       </c>
       <c r="H47" s="4" t="s">
         <v>7</v>
@@ -5141,7 +5175,7 @@
         <v>7</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>7</v>
@@ -5200,7 +5234,7 @@
         <v>7</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
       <c r="H49" s="4" t="s">
         <v>7</v>
@@ -5259,7 +5293,7 @@
         <v>7</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>7</v>
@@ -5318,7 +5352,7 @@
         <v>7</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="H51" s="4" t="s">
         <v>7</v>
@@ -5377,7 +5411,7 @@
         <v>7</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="H52" s="4" t="s">
         <v>7</v>
@@ -5436,7 +5470,7 @@
         <v>7</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="H53" s="4" t="s">
         <v>7</v>
@@ -5495,7 +5529,7 @@
         <v>7</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="H54" s="4" t="s">
         <v>7</v>
@@ -5554,7 +5588,7 @@
         <v>7</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="H55" s="4" t="s">
         <v>7</v>
@@ -5613,7 +5647,7 @@
         <v>7</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="H56" s="4" t="s">
         <v>7</v>
@@ -5672,7 +5706,7 @@
         <v>7</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="H57" s="4" t="s">
         <v>7</v>
@@ -5731,7 +5765,7 @@
         <v>7</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="H58" s="4" t="s">
         <v>7</v>
@@ -5790,7 +5824,7 @@
         <v>7</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="H59" s="4" t="s">
         <v>7</v>
@@ -5849,7 +5883,7 @@
         <v>7</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="H60" s="4" t="s">
         <v>7</v>
@@ -5908,7 +5942,7 @@
         <v>7</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="H61" s="4" t="s">
         <v>7</v>
@@ -5967,7 +6001,7 @@
         <v>7</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="H62" s="4" t="s">
         <v>7</v>
@@ -6026,7 +6060,7 @@
         <v>7</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="H63" s="4" t="s">
         <v>7</v>
@@ -6085,7 +6119,7 @@
         <v>7</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="H64" s="4" t="s">
         <v>7</v>
@@ -6144,7 +6178,7 @@
         <v>7</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="H65" s="4" t="s">
         <v>7</v>
@@ -6203,7 +6237,7 @@
         <v>7</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="H66" s="4" t="s">
         <v>7</v>
@@ -6262,7 +6296,7 @@
         <v>7</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="H67" s="4" t="s">
         <v>7</v>
@@ -6321,7 +6355,7 @@
         <v>7</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="H68" s="4" t="s">
         <v>7</v>
@@ -6380,7 +6414,7 @@
         <v>7</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="H69" s="4" t="s">
         <v>7</v>
@@ -6439,7 +6473,7 @@
         <v>7</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="H70" s="4" t="s">
         <v>7</v>
@@ -6498,7 +6532,7 @@
         <v>7</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="H71" s="4" t="s">
         <v>7</v>
@@ -6557,7 +6591,7 @@
         <v>7</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="H72" s="4" t="s">
         <v>7</v>
@@ -6616,7 +6650,7 @@
         <v>7</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="H73" s="4" t="s">
         <v>7</v>
@@ -6675,7 +6709,7 @@
         <v>7</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="H74" s="4" t="s">
         <v>7</v>
@@ -6734,7 +6768,7 @@
         <v>7</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="H75" s="4" t="s">
         <v>7</v>
@@ -6793,7 +6827,7 @@
         <v>7</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="H76" s="4" t="s">
         <v>7</v>
@@ -6852,7 +6886,7 @@
         <v>7</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="H77" s="4" t="s">
         <v>7</v>
@@ -6911,7 +6945,7 @@
         <v>7</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="H78" s="4" t="s">
         <v>7</v>
@@ -6970,7 +7004,7 @@
         <v>7</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="H79" s="4" t="s">
         <v>7</v>
@@ -7029,7 +7063,7 @@
         <v>7</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="H80" s="4" t="s">
         <v>7</v>
@@ -7088,7 +7122,7 @@
         <v>7</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>595</v>
+        <v>606</v>
       </c>
       <c r="H81" s="4" t="s">
         <v>7</v>
@@ -7147,7 +7181,7 @@
         <v>7</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="H82" s="4" t="s">
         <v>7</v>
@@ -7206,7 +7240,7 @@
         <v>7</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>597</v>
+        <v>608</v>
       </c>
       <c r="H83" s="4" t="s">
         <v>7</v>
@@ -7265,7 +7299,7 @@
         <v>7</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="H84" s="4" t="s">
         <v>7</v>
@@ -7324,7 +7358,7 @@
         <v>7</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
       <c r="H85" s="4" t="s">
         <v>7</v>
@@ -7383,7 +7417,7 @@
         <v>7</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="H86" s="4" t="s">
         <v>7</v>
@@ -7442,7 +7476,7 @@
         <v>7</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>601</v>
+        <v>612</v>
       </c>
       <c r="H87" s="4" t="s">
         <v>7</v>
@@ -7501,7 +7535,7 @@
         <v>7</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>602</v>
+        <v>613</v>
       </c>
       <c r="H88" s="4" t="s">
         <v>7</v>
@@ -7560,7 +7594,7 @@
         <v>7</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="H89" s="4" t="s">
         <v>7</v>
@@ -7619,7 +7653,7 @@
         <v>7</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="H90" s="4" t="s">
         <v>7</v>
@@ -7678,7 +7712,7 @@
         <v>7</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
       <c r="H91" s="4" t="s">
         <v>7</v>
@@ -7737,7 +7771,7 @@
         <v>7</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
       <c r="H92" s="4" t="s">
         <v>7</v>
@@ -7796,7 +7830,7 @@
         <v>7</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
       <c r="H93" s="4" t="s">
         <v>7</v>
@@ -7855,7 +7889,7 @@
         <v>7</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>608</v>
+        <v>619</v>
       </c>
       <c r="H94" s="4" t="s">
         <v>7</v>
@@ -7914,7 +7948,7 @@
         <v>7</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>609</v>
+        <v>620</v>
       </c>
       <c r="H95" s="4" t="s">
         <v>7</v>
@@ -7973,7 +8007,7 @@
         <v>7</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>610</v>
+        <v>621</v>
       </c>
       <c r="H96" s="4" t="s">
         <v>7</v>
@@ -8032,7 +8066,7 @@
         <v>7</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>611</v>
+        <v>622</v>
       </c>
       <c r="H97" s="4" t="s">
         <v>7</v>
@@ -8091,7 +8125,7 @@
         <v>7</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>612</v>
+        <v>623</v>
       </c>
       <c r="H98" s="4" t="s">
         <v>7</v>
@@ -8150,7 +8184,7 @@
         <v>7</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>613</v>
+        <v>624</v>
       </c>
       <c r="H99" s="4" t="s">
         <v>7</v>
@@ -8209,7 +8243,7 @@
         <v>7</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
       <c r="H100" s="4" t="s">
         <v>7</v>
@@ -8268,7 +8302,7 @@
         <v>7</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>615</v>
+        <v>626</v>
       </c>
       <c r="H101" s="4" t="s">
         <v>7</v>
@@ -8327,7 +8361,7 @@
         <v>7</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>616</v>
+        <v>627</v>
       </c>
       <c r="H102" s="4" t="s">
         <v>7</v>
@@ -8386,7 +8420,7 @@
         <v>7</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>617</v>
+        <v>628</v>
       </c>
       <c r="H103" s="4" t="s">
         <v>7</v>
@@ -8445,7 +8479,7 @@
         <v>7</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>618</v>
+        <v>629</v>
       </c>
       <c r="H104" s="4" t="s">
         <v>7</v>
@@ -8504,7 +8538,7 @@
         <v>7</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="H105" s="4" t="s">
         <v>7</v>
@@ -8563,7 +8597,7 @@
         <v>7</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
       <c r="H106" s="4" t="s">
         <v>7</v>
@@ -8622,7 +8656,7 @@
         <v>7</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>621</v>
+        <v>632</v>
       </c>
       <c r="H107" s="4" t="s">
         <v>7</v>
@@ -8681,7 +8715,7 @@
         <v>7</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>622</v>
+        <v>633</v>
       </c>
       <c r="H108" s="4" t="s">
         <v>7</v>
@@ -8740,7 +8774,7 @@
         <v>7</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>623</v>
+        <v>634</v>
       </c>
       <c r="H109" s="4" t="s">
         <v>7</v>
@@ -8799,7 +8833,7 @@
         <v>7</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>624</v>
+        <v>635</v>
       </c>
       <c r="H110" s="4" t="s">
         <v>7</v>
@@ -8858,7 +8892,7 @@
         <v>7</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>625</v>
+        <v>636</v>
       </c>
       <c r="H111" s="4" t="s">
         <v>7</v>
@@ -8932,72 +8966,72 @@
         <v>8</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>16</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>7</v>
@@ -9006,34 +9040,34 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>7</v>
@@ -9042,34 +9076,34 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>7</v>
@@ -9078,34 +9112,34 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="I5" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>392</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>380</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>7</v>
@@ -9114,34 +9148,34 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>7</v>
@@ -9150,34 +9184,34 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>7</v>
@@ -9186,34 +9220,34 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>124</v>
-      </c>
       <c r="H8" s="4" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>7</v>
@@ -9222,34 +9256,34 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>7</v>
@@ -9322,147 +9356,147 @@
         <v>8</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>11</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q1" s="5" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AC1" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AE1" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AF1" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG1" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH1" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI1" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AJ1" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK1" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AL1" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AM1" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AN1" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AO1" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AP1" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AQ1" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AR1" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AS1" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AT1" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>7</v>
@@ -9477,10 +9511,10 @@
         <v>7</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>7</v>
@@ -9520,10 +9554,10 @@
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>7</v>
@@ -9538,10 +9572,10 @@
         <v>7</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>7</v>
@@ -9591,10 +9625,10 @@
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>7</v>
@@ -9603,16 +9637,16 @@
         <v>7</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="L4" s="4" t="b">
         <v>0</v>
@@ -9646,7 +9680,7 @@
         <v>7</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="AA4" s="4">
         <v>-180</v>
@@ -9676,10 +9710,10 @@
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
@@ -9691,13 +9725,13 @@
         <v>7</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>7</v>
@@ -9734,7 +9768,7 @@
         <v>7</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="AA5" s="4">
         <v>-90</v>
@@ -9764,10 +9798,10 @@
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>7</v>
@@ -9782,10 +9816,10 @@
         <v>7</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>7</v>
@@ -9824,7 +9858,7 @@
         <v>7</v>
       </c>
       <c r="W6" s="4" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="X6" s="4" t="s">
         <v>7</v>
@@ -9842,10 +9876,10 @@
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>7</v>
@@ -9860,10 +9894,10 @@
         <v>7</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>7</v>
@@ -9920,10 +9954,10 @@
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>7</v>
@@ -9938,10 +9972,10 @@
         <v>7</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>7</v>
@@ -9998,10 +10032,10 @@
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>7</v>
@@ -10016,10 +10050,10 @@
         <v>7</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>7</v>
@@ -10076,10 +10110,10 @@
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>7</v>
@@ -10094,10 +10128,10 @@
         <v>7</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>7</v>
@@ -10154,10 +10188,10 @@
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>7</v>
@@ -10172,7 +10206,7 @@
         <v>7</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>7</v>
@@ -10215,10 +10249,10 @@
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>7</v>
@@ -10233,10 +10267,10 @@
         <v>7</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>7</v>
@@ -10248,13 +10282,13 @@
         <v>0</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q12" s="4" t="s">
         <v>7</v>
@@ -10278,10 +10312,10 @@
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>7</v>
@@ -10296,7 +10330,7 @@
         <v>7</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>7</v>
@@ -10356,10 +10390,10 @@
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>7</v>
@@ -10374,7 +10408,7 @@
         <v>7</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>7</v>
@@ -10434,10 +10468,10 @@
     </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>7</v>
@@ -10449,10 +10483,10 @@
         <v>7</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>174</v>
+        <v>204</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L15" s="4" t="b">
         <v>1</v>
@@ -10472,10 +10506,10 @@
       <c r="AO15" s="4"/>
       <c r="AP15" s="4"/>
       <c r="AQ15" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AT15" s="4" t="s">
-        <v>175</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -10689,22 +10723,22 @@
         <v>18</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>7</v>
@@ -10748,13 +10782,13 @@
         <v>8</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>11</v>
@@ -10765,10 +10799,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>7</v>
@@ -10828,87 +10862,87 @@
         <v>8</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>16</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>7</v>
@@ -10917,7 +10951,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G2" s="4" t="b">
         <v>0</v>
@@ -10929,13 +10963,13 @@
         <v>7</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N2" s="4" t="b">
         <v>0</v>
@@ -10956,19 +10990,19 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G3" s="4" t="b">
         <v>0</v>
@@ -10980,13 +11014,13 @@
         <v>7</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N3" s="4" t="b">
         <v>0</v>
@@ -11007,19 +11041,19 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G4" s="4" t="b">
         <v>0</v>
@@ -11031,13 +11065,13 @@
         <v>7</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N4" s="4" t="b">
         <v>1</v>
@@ -11058,19 +11092,19 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G5" s="4" t="b">
         <v>0</v>
@@ -11082,13 +11116,13 @@
         <v>7</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N5" s="4" t="b">
         <v>0</v>
@@ -11159,7 +11193,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT87"/>
+  <dimension ref="A1:AT90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -11203,153 +11237,153 @@
         <v>8</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>11</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q1" s="5" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AC1" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AE1" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AF1" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG1" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH1" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI1" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AJ1" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK1" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AL1" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AM1" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AN1" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AO1" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AP1" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AQ1" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AR1" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AS1" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AT1" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>7</v>
@@ -11358,10 +11392,10 @@
         <v>7</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>7</v>
@@ -11403,16 +11437,16 @@
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>7</v>
@@ -11421,10 +11455,10 @@
         <v>7</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>7</v>
@@ -11469,16 +11503,16 @@
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>7</v>
@@ -11487,10 +11521,10 @@
         <v>7</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>7</v>
@@ -11535,25 +11569,25 @@
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L5" s="4" t="b">
         <v>1</v>
@@ -11573,24 +11607,24 @@
       <c r="AO5" s="4"/>
       <c r="AP5" s="4"/>
       <c r="AQ5" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AT5" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>7</v>
@@ -11599,7 +11633,7 @@
         <v>7</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>7</v>
@@ -11614,7 +11648,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>7</v>
@@ -11644,16 +11678,16 @@
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>7</v>
@@ -11662,10 +11696,10 @@
         <v>7</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>7</v>
@@ -11677,13 +11711,13 @@
         <v>0</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q7" s="4" t="s">
         <v>7</v>
@@ -11707,16 +11741,16 @@
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>7</v>
@@ -11725,10 +11759,10 @@
         <v>7</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>7</v>
@@ -11785,16 +11819,16 @@
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>7</v>
@@ -11803,10 +11837,10 @@
         <v>7</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>7</v>
@@ -11818,13 +11852,13 @@
         <v>0</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q9" s="4" t="s">
         <v>7</v>
@@ -11856,25 +11890,25 @@
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L10" s="4" t="b">
         <v>0</v>
@@ -11889,7 +11923,7 @@
         <v>7</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q10" s="4" t="s">
         <v>7</v>
@@ -11913,16 +11947,16 @@
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>7</v>
@@ -11931,7 +11965,7 @@
         <v>7</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>7</v>
@@ -11976,16 +12010,16 @@
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>7</v>
@@ -11994,10 +12028,10 @@
         <v>7</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>7</v>
@@ -12042,16 +12076,16 @@
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>7</v>
@@ -12060,10 +12094,10 @@
         <v>7</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>7</v>
@@ -12108,16 +12142,16 @@
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>7</v>
@@ -12126,10 +12160,10 @@
         <v>7</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>7</v>
@@ -12174,25 +12208,25 @@
     </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L15" s="4" t="b">
         <v>1</v>
@@ -12220,24 +12254,24 @@
       <c r="AO15" s="4"/>
       <c r="AP15" s="4"/>
       <c r="AQ15" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AT15" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>7</v>
@@ -12246,10 +12280,10 @@
         <v>7</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>7</v>
@@ -12306,16 +12340,16 @@
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>7</v>
@@ -12324,10 +12358,10 @@
         <v>7</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>7</v>
@@ -12384,16 +12418,16 @@
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>7</v>
@@ -12402,10 +12436,10 @@
         <v>7</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>7</v>
@@ -12444,10 +12478,10 @@
         <v>7</v>
       </c>
       <c r="W18" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="X18" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y18" s="4"/>
       <c r="AB18" s="4"/>
@@ -12462,16 +12496,16 @@
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>7</v>
@@ -12480,10 +12514,10 @@
         <v>7</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>7</v>
@@ -12522,7 +12556,7 @@
         <v>7</v>
       </c>
       <c r="W19" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="X19" s="4" t="s">
         <v>7</v>
@@ -12540,16 +12574,16 @@
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>7</v>
@@ -12558,16 +12592,16 @@
         <v>7</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L20" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="4" t="b">
         <v>0</v>
@@ -12611,25 +12645,25 @@
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L21" s="4" t="b">
         <v>0</v>
@@ -12638,13 +12672,13 @@
         <v>0</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q21" s="4" t="s">
         <v>7</v>
@@ -12668,16 +12702,16 @@
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>7</v>
@@ -12686,10 +12720,10 @@
         <v>7</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>7</v>
@@ -12739,22 +12773,22 @@
     </row>
     <row r="23" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J23" s="4" t="s">
         <v>7</v>
@@ -12793,10 +12827,10 @@
         <v>7</v>
       </c>
       <c r="W23" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="X23" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y23" s="4"/>
       <c r="AB23" s="4"/>
@@ -12809,27 +12843,33 @@
       <c r="AP23" s="4"/>
       <c r="AQ23" s="4"/>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H24" s="4" t="s">
-        <v>174</v>
+      <c r="G24" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>116</v>
+        <v>133</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="L24" s="4" t="b">
         <v>0</v>
@@ -12837,50 +12877,63 @@
       <c r="M24" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="P24" s="4"/>
+      <c r="N24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="V24" s="4"/>
+      <c r="W24" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="Y24" s="4"/>
       <c r="AB24" s="4"/>
       <c r="AD24" s="4"/>
-      <c r="AI24" s="4"/>
-      <c r="AJ24" s="4"/>
+      <c r="AG24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI24" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="AK24" s="4"/>
       <c r="AN24" s="4"/>
       <c r="AO24" s="4"/>
       <c r="AP24" s="4"/>
-      <c r="AQ24" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="AT24" s="4" t="s">
-        <v>175</v>
-      </c>
+      <c r="AQ24" s="4"/>
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>177</v>
-      </c>
       <c r="C25" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K25" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L25" s="4" t="b">
@@ -12901,25 +12954,32 @@
       <c r="Q25" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="V25" s="4"/>
+      <c r="R25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V25" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="W25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X25" s="4" t="s">
         <v>7</v>
       </c>
       <c r="Y25" s="4"/>
       <c r="AB25" s="4"/>
       <c r="AD25" s="4"/>
-      <c r="AG25" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH25" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI25" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ25" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="AI25" s="4"/>
+      <c r="AJ25" s="4"/>
       <c r="AK25" s="4"/>
       <c r="AN25" s="4"/>
       <c r="AO25" s="4"/>
@@ -12928,24 +12988,30 @@
     </row>
     <row r="26" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="C26" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>128</v>
-      </c>
       <c r="J26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K26" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L26" s="4" t="b">
@@ -12966,25 +13032,8 @@
       <c r="Q26" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="R26" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="S26" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="T26" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="U26" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="V26" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="V26" s="4"/>
       <c r="W26" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="X26" s="4" t="s">
         <v>7</v>
       </c>
       <c r="Y26" s="4"/>
@@ -12993,7 +13042,15 @@
       <c r="AI26" s="4"/>
       <c r="AJ26" s="4"/>
       <c r="AK26" s="4"/>
-      <c r="AN26" s="4"/>
+      <c r="AL26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN26" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="AO26" s="4"/>
       <c r="AP26" s="4"/>
       <c r="AQ26" s="4"/>
@@ -13006,10 +13063,10 @@
         <v>181</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>7</v>
@@ -13018,10 +13075,10 @@
         <v>7</v>
       </c>
       <c r="I27" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="J27" s="4" t="s">
         <v>182</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="K27" s="4" t="s">
         <v>7</v>
@@ -13044,8 +13101,25 @@
       <c r="Q27" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="V27" s="4"/>
+      <c r="R27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V27" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="W27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X27" s="4" t="s">
         <v>7</v>
       </c>
       <c r="Y27" s="4"/>
@@ -13054,15 +13128,7 @@
       <c r="AI27" s="4"/>
       <c r="AJ27" s="4"/>
       <c r="AK27" s="4"/>
-      <c r="AL27" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AM27" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AN27" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="AN27" s="4"/>
       <c r="AO27" s="4"/>
       <c r="AP27" s="4"/>
       <c r="AQ27" s="4"/>
@@ -13075,10 +13141,10 @@
         <v>184</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>7</v>
@@ -13087,7 +13153,7 @@
         <v>7</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J28" s="4" t="s">
         <v>185</v>
@@ -13153,10 +13219,10 @@
         <v>187</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>7</v>
@@ -13165,7 +13231,7 @@
         <v>7</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J29" s="4" t="s">
         <v>188</v>
@@ -13231,10 +13297,10 @@
         <v>190</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>7</v>
@@ -13243,7 +13309,7 @@
         <v>7</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J30" s="4" t="s">
         <v>191</v>
@@ -13306,31 +13372,31 @@
         <v>192</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J31" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>194</v>
-      </c>
       <c r="K31" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L31" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" s="4" t="b">
         <v>0</v>
@@ -13345,24 +13411,12 @@
         <v>7</v>
       </c>
       <c r="Q31" s="4" t="s">
-        <v>7</v>
+        <v>194</v>
       </c>
       <c r="R31" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="S31" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="T31" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="U31" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="V31" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="W31" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X31" s="4" t="s">
@@ -13384,13 +13438,13 @@
         <v>195</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>7</v>
@@ -13399,7 +13453,7 @@
         <v>7</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J32" s="4" t="s">
         <v>196</v>
@@ -13411,7 +13465,7 @@
         <v>1</v>
       </c>
       <c r="M32" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32" s="4" t="s">
         <v>7</v>
@@ -13423,9 +13477,6 @@
         <v>7</v>
       </c>
       <c r="Q32" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="R32" s="4" t="s">
         <v>7</v>
       </c>
       <c r="V32" s="4" t="s">
@@ -13447,28 +13498,28 @@
     </row>
     <row r="33" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J33" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>199</v>
       </c>
       <c r="K33" s="4" t="s">
         <v>7</v>
@@ -13477,7 +13528,7 @@
         <v>1</v>
       </c>
       <c r="M33" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33" s="4" t="s">
         <v>7</v>
@@ -13489,6 +13540,9 @@
         <v>7</v>
       </c>
       <c r="Q33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R33" s="4" t="s">
         <v>7</v>
       </c>
       <c r="V33" s="4" t="s">
@@ -13510,16 +13564,16 @@
     </row>
     <row r="34" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>111</v>
-      </c>
       <c r="C34" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>7</v>
@@ -13528,7 +13582,7 @@
         <v>7</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="J34" s="4" t="s">
         <v>201</v>
@@ -13557,7 +13611,19 @@
       <c r="R34" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="S34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U34" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="V34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W34" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X34" s="4" t="s">
@@ -13574,7 +13640,7 @@
       <c r="AP34" s="4"/>
       <c r="AQ34" s="4"/>
     </row>
-    <row r="35" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>202</v>
       </c>
@@ -13582,65 +13648,31 @@
         <v>203</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G35" s="4" t="s">
-        <v>7</v>
+      <c r="H35" s="4" t="s">
+        <v>204</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>204</v>
+        <v>117</v>
       </c>
       <c r="K35" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L35" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M35" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="N35" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="O35" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="P35" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q35" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="R35" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="S35" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="T35" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="U35" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="V35" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="W35" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="X35" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="P35" s="4"/>
+      <c r="V35" s="4"/>
       <c r="Y35" s="4"/>
       <c r="AB35" s="4"/>
       <c r="AD35" s="4"/>
@@ -13650,20 +13682,25 @@
       <c r="AN35" s="4"/>
       <c r="AO35" s="4"/>
       <c r="AP35" s="4"/>
-      <c r="AQ35" s="4"/>
+      <c r="AQ35" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT35" s="4" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="36" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>7</v>
@@ -13672,16 +13709,16 @@
         <v>7</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K36" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L36" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M36" s="4" t="b">
         <v>0</v>
@@ -13711,13 +13748,13 @@
         <v>7</v>
       </c>
       <c r="V36" s="4" t="s">
-        <v>206</v>
+        <v>7</v>
       </c>
       <c r="W36" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X36" s="4" t="s">
-        <v>208</v>
+        <v>7</v>
       </c>
       <c r="Y36" s="4"/>
       <c r="AB36" s="4"/>
@@ -13730,27 +13767,30 @@
       <c r="AP36" s="4"/>
       <c r="AQ36" s="4"/>
     </row>
-    <row r="37" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>209</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H37" s="4" t="s">
-        <v>174</v>
+      <c r="G37" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>116</v>
+        <v>129</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>211</v>
       </c>
       <c r="K37" s="4" t="s">
         <v>7</v>
@@ -13761,8 +13801,39 @@
       <c r="M37" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="P37" s="4"/>
-      <c r="V37" s="4"/>
+      <c r="N37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V37" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="W37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X37" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="Y37" s="4"/>
       <c r="AB37" s="4"/>
       <c r="AD37" s="4"/>
@@ -13772,80 +13843,28 @@
       <c r="AN37" s="4"/>
       <c r="AO37" s="4"/>
       <c r="AP37" s="4"/>
-      <c r="AQ37" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="AT37" s="4" t="s">
-        <v>175</v>
-      </c>
+      <c r="AQ37" s="4"/>
     </row>
     <row r="38" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="K38" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L38" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M38" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="N38" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="O38" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="P38" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q38" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="R38" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="S38" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="T38" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="U38" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="V38" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="W38" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="X38" s="4" t="s">
-        <v>7</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="V38" s="4"/>
       <c r="Y38" s="4"/>
       <c r="AB38" s="4"/>
       <c r="AD38" s="4"/>
@@ -13854,107 +13873,120 @@
       <c r="AK38" s="4"/>
       <c r="AN38" s="4"/>
       <c r="AO38" s="4"/>
-      <c r="AP38" s="4"/>
+      <c r="AP38" s="4" t="s">
+        <v>214</v>
+      </c>
       <c r="AQ38" s="4"/>
     </row>
     <row r="39" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>7</v>
+        <v>218</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>128</v>
+        <v>219</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="K39" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L39" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M39" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="N39" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="O39" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="P39" s="4" t="s">
-        <v>7</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="P39" s="4"/>
       <c r="Q39" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="R39" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="S39" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="T39" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="U39" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="V39" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="W39" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="X39" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="V39" s="4"/>
       <c r="Y39" s="4"/>
       <c r="AB39" s="4"/>
       <c r="AD39" s="4"/>
       <c r="AI39" s="4"/>
       <c r="AJ39" s="4"/>
       <c r="AK39" s="4"/>
-      <c r="AN39" s="4"/>
+      <c r="AN39" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="AO39" s="4"/>
       <c r="AP39" s="4"/>
       <c r="AQ39" s="4"/>
     </row>
     <row r="40" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B40" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L40" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M40" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W40" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="P40" s="4"/>
-      <c r="V40" s="4"/>
+      <c r="X40" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="Y40" s="4"/>
       <c r="AB40" s="4"/>
       <c r="AD40" s="4"/>
@@ -13963,65 +13995,99 @@
       <c r="AK40" s="4"/>
       <c r="AN40" s="4"/>
       <c r="AO40" s="4"/>
-      <c r="AP40" s="4" t="s">
-        <v>218</v>
-      </c>
+      <c r="AP40" s="4"/>
       <c r="AQ40" s="4"/>
     </row>
     <row r="41" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>222</v>
+        <v>7</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>223</v>
+        <v>129</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="P41" s="4"/>
+        <v>225</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L41" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M41" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P41" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="Q41" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="V41" s="4"/>
+      <c r="R41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X41" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="Y41" s="4"/>
       <c r="AB41" s="4"/>
       <c r="AD41" s="4"/>
       <c r="AI41" s="4"/>
       <c r="AJ41" s="4"/>
       <c r="AK41" s="4"/>
-      <c r="AN41" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="AN41" s="4"/>
       <c r="AO41" s="4"/>
       <c r="AP41" s="4"/>
       <c r="AQ41" s="4"/>
     </row>
     <row r="42" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>7</v>
@@ -14030,16 +14096,16 @@
         <v>7</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>7</v>
+        <v>228</v>
       </c>
       <c r="K42" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L42" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M42" s="4" t="b">
         <v>0</v>
@@ -14072,7 +14138,7 @@
         <v>7</v>
       </c>
       <c r="W42" s="4" t="s">
-        <v>222</v>
+        <v>7</v>
       </c>
       <c r="X42" s="4" t="s">
         <v>7</v>
@@ -14090,16 +14156,16 @@
     </row>
     <row r="43" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>7</v>
@@ -14108,10 +14174,10 @@
         <v>7</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K43" s="4" t="s">
         <v>7</v>
@@ -14134,25 +14200,8 @@
       <c r="Q43" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="R43" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="S43" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="T43" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="U43" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="V43" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="V43" s="4"/>
       <c r="W43" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="X43" s="4" t="s">
         <v>7</v>
       </c>
       <c r="Y43" s="4"/>
@@ -14161,23 +14210,31 @@
       <c r="AI43" s="4"/>
       <c r="AJ43" s="4"/>
       <c r="AK43" s="4"/>
-      <c r="AN43" s="4"/>
+      <c r="AL43" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM43" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN43" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="AO43" s="4"/>
       <c r="AP43" s="4"/>
       <c r="AQ43" s="4"/>
     </row>
     <row r="44" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>7</v>
@@ -14186,16 +14243,16 @@
         <v>7</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>128</v>
+        <v>234</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="K44" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L44" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M44" s="4" t="b">
         <v>0</v>
@@ -14213,25 +14270,14 @@
         <v>7</v>
       </c>
       <c r="R44" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="S44" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="T44" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="U44" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="V44" s="4" t="s">
-        <v>7</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="V44" s="4"/>
       <c r="W44" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X44" s="4" t="s">
-        <v>7</v>
+        <v>236</v>
       </c>
       <c r="Y44" s="4"/>
       <c r="AB44" s="4"/>
@@ -14246,28 +14292,28 @@
     </row>
     <row r="45" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B45" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I45" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>182</v>
-      </c>
       <c r="J45" s="4" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="K45" s="4" t="s">
         <v>7</v>
@@ -14290,9 +14336,15 @@
       <c r="Q45" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="R45" s="4" t="s">
+        <v>236</v>
+      </c>
       <c r="V45" s="4"/>
       <c r="W45" s="4" t="s">
         <v>7</v>
+      </c>
+      <c r="X45" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="Y45" s="4"/>
       <c r="AB45" s="4"/>
@@ -14300,31 +14352,23 @@
       <c r="AI45" s="4"/>
       <c r="AJ45" s="4"/>
       <c r="AK45" s="4"/>
-      <c r="AL45" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AM45" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AN45" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="AN45" s="4"/>
       <c r="AO45" s="4"/>
       <c r="AP45" s="4"/>
       <c r="AQ45" s="4"/>
     </row>
     <row r="46" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>7</v>
@@ -14333,16 +14377,16 @@
         <v>7</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>238</v>
+        <v>179</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="K46" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L46" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M46" s="4" t="b">
         <v>0</v>
@@ -14359,15 +14403,9 @@
       <c r="Q46" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="R46" s="4" t="s">
-        <v>240</v>
-      </c>
       <c r="V46" s="4"/>
       <c r="W46" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="X46" s="4" t="s">
-        <v>240</v>
       </c>
       <c r="Y46" s="4"/>
       <c r="AB46" s="4"/>
@@ -14375,23 +14413,31 @@
       <c r="AI46" s="4"/>
       <c r="AJ46" s="4"/>
       <c r="AK46" s="4"/>
-      <c r="AN46" s="4"/>
+      <c r="AL46" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM46" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN46" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="AO46" s="4"/>
       <c r="AP46" s="4"/>
       <c r="AQ46" s="4"/>
     </row>
     <row r="47" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>7</v>
@@ -14400,10 +14446,10 @@
         <v>7</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K47" s="4" t="s">
         <v>7</v>
@@ -14427,14 +14473,14 @@
         <v>7</v>
       </c>
       <c r="R47" s="4" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="V47" s="4"/>
       <c r="W47" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X47" s="4" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="Y47" s="4"/>
       <c r="AB47" s="4"/>
@@ -14449,16 +14495,16 @@
     </row>
     <row r="48" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>7</v>
@@ -14467,16 +14513,16 @@
         <v>7</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>182</v>
+        <v>234</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K48" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L48" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M48" s="4" t="b">
         <v>0</v>
@@ -14493,9 +14539,15 @@
       <c r="Q48" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="R48" s="4" t="s">
+        <v>236</v>
+      </c>
       <c r="V48" s="4"/>
       <c r="W48" s="4" t="s">
         <v>7</v>
+      </c>
+      <c r="X48" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="Y48" s="4"/>
       <c r="AB48" s="4"/>
@@ -14503,31 +14555,23 @@
       <c r="AI48" s="4"/>
       <c r="AJ48" s="4"/>
       <c r="AK48" s="4"/>
-      <c r="AL48" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AM48" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AN48" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="AN48" s="4"/>
       <c r="AO48" s="4"/>
       <c r="AP48" s="4"/>
       <c r="AQ48" s="4"/>
     </row>
     <row r="49" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>7</v>
@@ -14536,10 +14580,10 @@
         <v>7</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="K49" s="4" t="s">
         <v>7</v>
@@ -14563,14 +14607,14 @@
         <v>7</v>
       </c>
       <c r="R49" s="4" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="V49" s="4"/>
       <c r="W49" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X49" s="4" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="Y49" s="4"/>
       <c r="AB49" s="4"/>
@@ -14585,16 +14629,16 @@
     </row>
     <row r="50" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>7</v>
@@ -14603,16 +14647,16 @@
         <v>7</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>238</v>
+        <v>179</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="K50" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L50" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M50" s="4" t="b">
         <v>0</v>
@@ -14629,15 +14673,9 @@
       <c r="Q50" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="R50" s="4" t="s">
-        <v>240</v>
-      </c>
       <c r="V50" s="4"/>
       <c r="W50" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="X50" s="4" t="s">
-        <v>240</v>
       </c>
       <c r="Y50" s="4"/>
       <c r="AB50" s="4"/>
@@ -14645,23 +14683,31 @@
       <c r="AI50" s="4"/>
       <c r="AJ50" s="4"/>
       <c r="AK50" s="4"/>
-      <c r="AN50" s="4"/>
+      <c r="AL50" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM50" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN50" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="AO50" s="4"/>
       <c r="AP50" s="4"/>
       <c r="AQ50" s="4"/>
     </row>
     <row r="51" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>7</v>
@@ -14670,16 +14716,16 @@
         <v>7</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>238</v>
+        <v>129</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="K51" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L51" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M51" s="4" t="b">
         <v>0</v>
@@ -14697,14 +14743,25 @@
         <v>7</v>
       </c>
       <c r="R51" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="V51" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="S51" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T51" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U51" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V51" s="4" t="s">
+        <v>212</v>
+      </c>
       <c r="W51" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X51" s="4" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Y51" s="4"/>
       <c r="AB51" s="4"/>
@@ -14719,16 +14776,16 @@
     </row>
     <row r="52" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>7</v>
@@ -14737,10 +14794,10 @@
         <v>7</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="K52" s="4" t="s">
         <v>7</v>
@@ -14763,9 +14820,26 @@
       <c r="Q52" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="V52" s="4"/>
+      <c r="R52" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S52" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T52" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U52" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V52" s="4" t="s">
+        <v>212</v>
+      </c>
       <c r="W52" s="4" t="s">
         <v>7</v>
+      </c>
+      <c r="X52" s="4" t="s">
+        <v>263</v>
       </c>
       <c r="Y52" s="4"/>
       <c r="AB52" s="4"/>
@@ -14773,31 +14847,23 @@
       <c r="AI52" s="4"/>
       <c r="AJ52" s="4"/>
       <c r="AK52" s="4"/>
-      <c r="AL52" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AM52" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AN52" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="AN52" s="4"/>
       <c r="AO52" s="4"/>
       <c r="AP52" s="4"/>
       <c r="AQ52" s="4"/>
     </row>
     <row r="53" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>7</v>
@@ -14806,10 +14872,10 @@
         <v>7</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="K53" s="4" t="s">
         <v>7</v>
@@ -14845,13 +14911,13 @@
         <v>7</v>
       </c>
       <c r="V53" s="4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="W53" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X53" s="4" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Y53" s="4"/>
       <c r="AB53" s="4"/>
@@ -14866,16 +14932,16 @@
     </row>
     <row r="54" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>7</v>
@@ -14884,10 +14950,10 @@
         <v>7</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K54" s="4" t="s">
         <v>7</v>
@@ -14923,13 +14989,13 @@
         <v>7</v>
       </c>
       <c r="V54" s="4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="W54" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X54" s="4" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Y54" s="4"/>
       <c r="AB54" s="4"/>
@@ -14944,16 +15010,16 @@
     </row>
     <row r="55" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>7</v>
@@ -14962,10 +15028,10 @@
         <v>7</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="K55" s="4" t="s">
         <v>7</v>
@@ -15001,13 +15067,13 @@
         <v>7</v>
       </c>
       <c r="V55" s="4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="W55" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X55" s="4" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Y55" s="4"/>
       <c r="AB55" s="4"/>
@@ -15022,94 +15088,58 @@
     </row>
     <row r="56" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>7</v>
+        <v>277</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>128</v>
+        <v>219</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="K56" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L56" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M56" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="N56" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="O56" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="P56" s="4" t="s">
-        <v>7</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="P56" s="4"/>
       <c r="Q56" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="R56" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="S56" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="T56" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="U56" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="V56" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="W56" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="X56" s="4" t="s">
-        <v>275</v>
-      </c>
+      <c r="V56" s="4"/>
       <c r="Y56" s="4"/>
       <c r="AB56" s="4"/>
       <c r="AD56" s="4"/>
       <c r="AI56" s="4"/>
       <c r="AJ56" s="4"/>
       <c r="AK56" s="4"/>
-      <c r="AN56" s="4"/>
+      <c r="AN56" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="AO56" s="4"/>
       <c r="AP56" s="4"/>
       <c r="AQ56" s="4"/>
     </row>
     <row r="57" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>7</v>
@@ -15118,16 +15148,16 @@
         <v>7</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="K57" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L57" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M57" s="4" t="b">
         <v>0</v>
@@ -15157,13 +15187,13 @@
         <v>7</v>
       </c>
       <c r="V57" s="4" t="s">
-        <v>216</v>
+        <v>7</v>
       </c>
       <c r="W57" s="4" t="s">
-        <v>7</v>
+        <v>281</v>
       </c>
       <c r="X57" s="4" t="s">
-        <v>279</v>
+        <v>7</v>
       </c>
       <c r="Y57" s="4"/>
       <c r="AB57" s="4"/>
@@ -15178,58 +15208,94 @@
     </row>
     <row r="58" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>221</v>
+        <v>283</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>281</v>
+        <v>7</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>223</v>
+        <v>129</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
-      <c r="P58" s="4"/>
+        <v>284</v>
+      </c>
+      <c r="K58" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L58" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M58" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N58" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O58" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P58" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="Q58" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="V58" s="4"/>
+      <c r="R58" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S58" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T58" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U58" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V58" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W58" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X58" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="Y58" s="4"/>
       <c r="AB58" s="4"/>
       <c r="AD58" s="4"/>
       <c r="AI58" s="4"/>
       <c r="AJ58" s="4"/>
       <c r="AK58" s="4"/>
-      <c r="AN58" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="AN58" s="4"/>
       <c r="AO58" s="4"/>
       <c r="AP58" s="4"/>
       <c r="AQ58" s="4"/>
     </row>
     <row r="59" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>226</v>
+        <v>286</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>7</v>
@@ -15238,10 +15304,10 @@
         <v>7</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="K59" s="4" t="s">
         <v>7</v>
@@ -15253,34 +15319,19 @@
         <v>0</v>
       </c>
       <c r="N59" s="4" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="O59" s="4" t="s">
-        <v>7</v>
+        <v>135</v>
       </c>
       <c r="P59" s="4" t="s">
-        <v>7</v>
+        <v>126</v>
       </c>
       <c r="Q59" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="R59" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="S59" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="T59" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="U59" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="V59" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="W59" s="4" t="s">
-        <v>285</v>
       </c>
       <c r="X59" s="4" t="s">
         <v>7</v>
@@ -15298,16 +15349,16 @@
     </row>
     <row r="60" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>7</v>
@@ -15316,10 +15367,10 @@
         <v>7</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K60" s="4" t="s">
         <v>7</v>
@@ -15376,16 +15427,16 @@
     </row>
     <row r="61" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>290</v>
+        <v>230</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>7</v>
@@ -15394,10 +15445,10 @@
         <v>7</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>104</v>
+        <v>179</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K61" s="4" t="s">
         <v>7</v>
@@ -15409,21 +15460,19 @@
         <v>0</v>
       </c>
       <c r="N61" s="4" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="O61" s="4" t="s">
-        <v>134</v>
+        <v>7</v>
       </c>
       <c r="P61" s="4" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="Q61" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="V61" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="X61" s="4" t="s">
+      <c r="V61" s="4"/>
+      <c r="W61" s="4" t="s">
         <v>7</v>
       </c>
       <c r="Y61" s="4"/>
@@ -15432,23 +15481,31 @@
       <c r="AI61" s="4"/>
       <c r="AJ61" s="4"/>
       <c r="AK61" s="4"/>
-      <c r="AN61" s="4"/>
+      <c r="AL61" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM61" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN61" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="AO61" s="4"/>
       <c r="AP61" s="4"/>
       <c r="AQ61" s="4"/>
     </row>
     <row r="62" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>7</v>
@@ -15457,10 +15514,10 @@
         <v>7</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>128</v>
+        <v>234</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K62" s="4" t="s">
         <v>7</v>
@@ -15484,25 +15541,14 @@
         <v>7</v>
       </c>
       <c r="R62" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="S62" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="T62" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="U62" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="V62" s="4" t="s">
-        <v>7</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="V62" s="4"/>
       <c r="W62" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X62" s="4" t="s">
-        <v>7</v>
+        <v>252</v>
       </c>
       <c r="Y62" s="4"/>
       <c r="AB62" s="4"/>
@@ -15517,28 +15563,28 @@
     </row>
     <row r="63" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B63" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I63" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I63" s="4" t="s">
-        <v>182</v>
-      </c>
       <c r="J63" s="4" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="K63" s="4" t="s">
         <v>7</v>
@@ -15561,9 +15607,15 @@
       <c r="Q63" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="R63" s="4" t="s">
+        <v>236</v>
+      </c>
       <c r="V63" s="4"/>
       <c r="W63" s="4" t="s">
         <v>7</v>
+      </c>
+      <c r="X63" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="Y63" s="4"/>
       <c r="AB63" s="4"/>
@@ -15571,31 +15623,23 @@
       <c r="AI63" s="4"/>
       <c r="AJ63" s="4"/>
       <c r="AK63" s="4"/>
-      <c r="AL63" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AM63" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AN63" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="AN63" s="4"/>
       <c r="AO63" s="4"/>
       <c r="AP63" s="4"/>
       <c r="AQ63" s="4"/>
     </row>
     <row r="64" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>7</v>
@@ -15604,10 +15648,10 @@
         <v>7</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K64" s="4" t="s">
         <v>7</v>
@@ -15631,14 +15675,14 @@
         <v>7</v>
       </c>
       <c r="R64" s="4" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="V64" s="4"/>
       <c r="W64" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X64" s="4" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="Y64" s="4"/>
       <c r="AB64" s="4"/>
@@ -15653,16 +15697,16 @@
     </row>
     <row r="65" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>7</v>
@@ -15671,10 +15715,10 @@
         <v>7</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K65" s="4" t="s">
         <v>7</v>
@@ -15698,14 +15742,14 @@
         <v>7</v>
       </c>
       <c r="R65" s="4" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="V65" s="4"/>
       <c r="W65" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X65" s="4" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="Y65" s="4"/>
       <c r="AB65" s="4"/>
@@ -15720,16 +15764,16 @@
     </row>
     <row r="66" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>7</v>
@@ -15738,16 +15782,16 @@
         <v>7</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K66" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L66" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M66" s="4" t="b">
         <v>0</v>
@@ -15765,14 +15809,14 @@
         <v>7</v>
       </c>
       <c r="R66" s="4" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="V66" s="4"/>
       <c r="W66" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X66" s="4" t="s">
-        <v>240</v>
+        <v>7</v>
       </c>
       <c r="Y66" s="4"/>
       <c r="AB66" s="4"/>
@@ -15787,16 +15831,16 @@
     </row>
     <row r="67" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>307</v>
+        <v>254</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>7</v>
@@ -15805,16 +15849,16 @@
         <v>7</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>238</v>
+        <v>179</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K67" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L67" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M67" s="4" t="b">
         <v>0</v>
@@ -15831,15 +15875,9 @@
       <c r="Q67" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="R67" s="4" t="s">
-        <v>240</v>
-      </c>
       <c r="V67" s="4"/>
       <c r="W67" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="X67" s="4" t="s">
-        <v>240</v>
       </c>
       <c r="Y67" s="4"/>
       <c r="AB67" s="4"/>
@@ -15847,23 +15885,31 @@
       <c r="AI67" s="4"/>
       <c r="AJ67" s="4"/>
       <c r="AK67" s="4"/>
-      <c r="AN67" s="4"/>
+      <c r="AL67" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM67" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN67" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="AO67" s="4"/>
       <c r="AP67" s="4"/>
       <c r="AQ67" s="4"/>
     </row>
     <row r="68" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>310</v>
+        <v>261</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>7</v>
@@ -15872,7 +15918,7 @@
         <v>7</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>238</v>
+        <v>129</v>
       </c>
       <c r="J68" s="4" t="s">
         <v>311</v>
@@ -15899,14 +15945,25 @@
         <v>7</v>
       </c>
       <c r="R68" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="V68" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="S68" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T68" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U68" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V68" s="4" t="s">
+        <v>212</v>
+      </c>
       <c r="W68" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X68" s="4" t="s">
-        <v>7</v>
+        <v>263</v>
       </c>
       <c r="Y68" s="4"/>
       <c r="AB68" s="4"/>
@@ -15924,13 +15981,13 @@
         <v>312</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>7</v>
@@ -15939,7 +15996,7 @@
         <v>7</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="J69" s="4" t="s">
         <v>313</v>
@@ -15965,9 +16022,26 @@
       <c r="Q69" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="V69" s="4"/>
+      <c r="R69" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S69" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T69" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U69" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V69" s="4" t="s">
+        <v>212</v>
+      </c>
       <c r="W69" s="4" t="s">
         <v>7</v>
+      </c>
+      <c r="X69" s="4" t="s">
+        <v>267</v>
       </c>
       <c r="Y69" s="4"/>
       <c r="AB69" s="4"/>
@@ -15975,15 +16049,7 @@
       <c r="AI69" s="4"/>
       <c r="AJ69" s="4"/>
       <c r="AK69" s="4"/>
-      <c r="AL69" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AM69" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AN69" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="AN69" s="4"/>
       <c r="AO69" s="4"/>
       <c r="AP69" s="4"/>
       <c r="AQ69" s="4"/>
@@ -15993,13 +16059,13 @@
         <v>314</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>7</v>
@@ -16008,7 +16074,7 @@
         <v>7</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J70" s="4" t="s">
         <v>315</v>
@@ -16047,13 +16113,13 @@
         <v>7</v>
       </c>
       <c r="V70" s="4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="W70" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X70" s="4" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="Y70" s="4"/>
       <c r="AB70" s="4"/>
@@ -16071,13 +16137,13 @@
         <v>316</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>269</v>
+        <v>317</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>7</v>
@@ -16086,10 +16152,10 @@
         <v>7</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K71" s="4" t="s">
         <v>7</v>
@@ -16125,13 +16191,13 @@
         <v>7</v>
       </c>
       <c r="V71" s="4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="W71" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X71" s="4" t="s">
-        <v>271</v>
+        <v>319</v>
       </c>
       <c r="Y71" s="4"/>
       <c r="AB71" s="4"/>
@@ -16146,16 +16212,16 @@
     </row>
     <row r="72" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>277</v>
+        <v>321</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>7</v>
@@ -16164,10 +16230,10 @@
         <v>7</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="K72" s="4" t="s">
         <v>7</v>
@@ -16203,13 +16269,13 @@
         <v>7</v>
       </c>
       <c r="V72" s="4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="W72" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X72" s="4" t="s">
-        <v>279</v>
+        <v>323</v>
       </c>
       <c r="Y72" s="4"/>
       <c r="AB72" s="4"/>
@@ -16224,16 +16290,16 @@
     </row>
     <row r="73" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>7</v>
@@ -16242,10 +16308,10 @@
         <v>7</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="K73" s="4" t="s">
         <v>7</v>
@@ -16281,13 +16347,13 @@
         <v>7</v>
       </c>
       <c r="V73" s="4" t="s">
-        <v>216</v>
+        <v>7</v>
       </c>
       <c r="W73" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X73" s="4" t="s">
-        <v>323</v>
+        <v>7</v>
       </c>
       <c r="Y73" s="4"/>
       <c r="AB73" s="4"/>
@@ -16302,71 +16368,24 @@
     </row>
     <row r="74" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="J74" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="K74" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L74" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M74" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="N74" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="O74" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="P74" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q74" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="R74" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="S74" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="T74" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="U74" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="V74" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="W74" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="X74" s="4" t="s">
-        <v>327</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="L74" s="4"/>
+      <c r="M74" s="4"/>
+      <c r="P74" s="4"/>
+      <c r="V74" s="4"/>
       <c r="Y74" s="4"/>
       <c r="AB74" s="4"/>
       <c r="AD74" s="4"/>
@@ -16375,99 +16394,65 @@
       <c r="AK74" s="4"/>
       <c r="AN74" s="4"/>
       <c r="AO74" s="4"/>
-      <c r="AP74" s="4"/>
+      <c r="AP74" s="4" t="s">
+        <v>328</v>
+      </c>
       <c r="AQ74" s="4"/>
     </row>
     <row r="75" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>7</v>
+        <v>331</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>128</v>
+        <v>219</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="K75" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L75" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M75" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="N75" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="O75" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="P75" s="4" t="s">
-        <v>7</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="L75" s="4"/>
+      <c r="M75" s="4"/>
+      <c r="P75" s="4"/>
       <c r="Q75" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="R75" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="S75" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="T75" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="U75" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="V75" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="W75" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="X75" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="V75" s="4"/>
       <c r="Y75" s="4"/>
       <c r="AB75" s="4"/>
       <c r="AD75" s="4"/>
       <c r="AI75" s="4"/>
       <c r="AJ75" s="4"/>
       <c r="AK75" s="4"/>
-      <c r="AN75" s="4"/>
+      <c r="AN75" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="AO75" s="4"/>
       <c r="AP75" s="4"/>
       <c r="AQ75" s="4"/>
     </row>
     <row r="76" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>107</v>
+        <v>334</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>7</v>
@@ -16476,10 +16461,10 @@
         <v>7</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="K76" s="4" t="s">
         <v>7</v>
@@ -16505,11 +16490,23 @@
       <c r="R76" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="S76" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T76" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U76" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="V76" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="W76" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X76" s="4" t="s">
-        <v>7</v>
+        <v>337</v>
       </c>
       <c r="Y76" s="4"/>
       <c r="AB76" s="4"/>
@@ -16524,79 +16521,58 @@
     </row>
     <row r="77" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>103</v>
+        <v>330</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>7</v>
+        <v>339</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>104</v>
+        <v>219</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="K77" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L77" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M77" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="N77" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="O77" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="P77" s="4" t="s">
-        <v>7</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="L77" s="4"/>
+      <c r="M77" s="4"/>
+      <c r="P77" s="4"/>
       <c r="Q77" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="V77" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="X77" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="V77" s="4"/>
       <c r="Y77" s="4"/>
       <c r="AB77" s="4"/>
       <c r="AD77" s="4"/>
       <c r="AI77" s="4"/>
       <c r="AJ77" s="4"/>
       <c r="AK77" s="4"/>
-      <c r="AN77" s="4"/>
+      <c r="AN77" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="AO77" s="4"/>
       <c r="AP77" s="4"/>
       <c r="AQ77" s="4"/>
     </row>
     <row r="78" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>111</v>
+        <v>342</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>7</v>
@@ -16605,10 +16581,10 @@
         <v>7</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>335</v>
+        <v>7</v>
       </c>
       <c r="K78" s="4" t="s">
         <v>7</v>
@@ -16634,7 +16610,19 @@
       <c r="R78" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="S78" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T78" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U78" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="V78" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W78" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X78" s="4" t="s">
@@ -16653,16 +16641,16 @@
     </row>
     <row r="79" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>337</v>
+        <v>108</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>7</v>
@@ -16671,10 +16659,10 @@
         <v>7</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>338</v>
+        <v>109</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="K79" s="4" t="s">
         <v>7</v>
@@ -16700,37 +16688,15 @@
       <c r="R79" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="V79" s="4"/>
-      <c r="W79" s="4" t="s">
+      <c r="V79" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X79" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Y79" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z79" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA79" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB79" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC79" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD79" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE79" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF79" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="Y79" s="4"/>
+      <c r="AB79" s="4"/>
+      <c r="AD79" s="4"/>
       <c r="AI79" s="4"/>
       <c r="AJ79" s="4"/>
       <c r="AK79" s="4"/>
@@ -16741,16 +16707,16 @@
     </row>
     <row r="80" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>341</v>
+        <v>104</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>7</v>
@@ -16759,10 +16725,10 @@
         <v>7</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>342</v>
+        <v>106</v>
       </c>
       <c r="K80" s="4" t="s">
         <v>7</v>
@@ -16771,7 +16737,7 @@
         <v>1</v>
       </c>
       <c r="M80" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N80" s="4" t="s">
         <v>7</v>
@@ -16785,22 +16751,7 @@
       <c r="Q80" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="R80" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="S80" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="T80" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="U80" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="V80" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="W80" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X80" s="4" t="s">
@@ -16819,16 +16770,16 @@
     </row>
     <row r="81" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>345</v>
+        <v>112</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>7</v>
@@ -16837,16 +16788,16 @@
         <v>7</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>338</v>
+        <v>109</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K81" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L81" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M81" s="4" t="b">
         <v>0</v>
@@ -16866,37 +16817,15 @@
       <c r="R81" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="V81" s="4"/>
-      <c r="W81" s="4" t="s">
+      <c r="V81" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X81" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Y81" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="Z81" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA81" s="4">
-        <v>18</v>
-      </c>
-      <c r="AB81" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC81" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD81" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE81" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF81" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="Y81" s="4"/>
+      <c r="AB81" s="4"/>
+      <c r="AD81" s="4"/>
       <c r="AI81" s="4"/>
       <c r="AJ81" s="4"/>
       <c r="AK81" s="4"/>
@@ -16913,10 +16842,10 @@
         <v>349</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>7</v>
@@ -16925,16 +16854,16 @@
         <v>7</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>128</v>
+        <v>350</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K82" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L82" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M82" s="4" t="b">
         <v>0</v>
@@ -16954,27 +16883,37 @@
       <c r="R82" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="S82" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="T82" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="U82" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="V82" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="V82" s="4"/>
       <c r="W82" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X82" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Y82" s="4"/>
-      <c r="AB82" s="4"/>
-      <c r="AD82" s="4"/>
+      <c r="Y82" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z82" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA82" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB82" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC82" s="4">
+        <v>5</v>
+      </c>
+      <c r="AD82" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE82" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF82" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="AI82" s="4"/>
       <c r="AJ82" s="4"/>
       <c r="AK82" s="4"/>
@@ -16985,16 +16924,16 @@
     </row>
     <row r="83" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>7</v>
@@ -17003,16 +16942,16 @@
         <v>7</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K83" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L83" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M83" s="4" t="b">
         <v>0</v>
@@ -17042,7 +16981,7 @@
         <v>7</v>
       </c>
       <c r="V83" s="4" t="s">
-        <v>7</v>
+        <v>355</v>
       </c>
       <c r="W83" s="4" t="s">
         <v>7</v>
@@ -17063,16 +17002,16 @@
     </row>
     <row r="84" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>7</v>
@@ -17081,10 +17020,10 @@
         <v>7</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>128</v>
+        <v>350</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K84" s="4" t="s">
         <v>7</v>
@@ -17110,27 +17049,37 @@
       <c r="R84" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="S84" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="T84" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="U84" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="V84" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="V84" s="4"/>
       <c r="W84" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X84" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Y84" s="4"/>
-      <c r="AB84" s="4"/>
-      <c r="AD84" s="4"/>
+      <c r="Y84" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="Z84" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA84" s="4">
+        <v>18</v>
+      </c>
+      <c r="AB84" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD84" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF84" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="AI84" s="4"/>
       <c r="AJ84" s="4"/>
       <c r="AK84" s="4"/>
@@ -17141,16 +17090,16 @@
     </row>
     <row r="85" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>7</v>
@@ -17159,10 +17108,10 @@
         <v>7</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="K85" s="4" t="s">
         <v>7</v>
@@ -17219,16 +17168,16 @@
     </row>
     <row r="86" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>7</v>
@@ -17237,10 +17186,10 @@
         <v>7</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="K86" s="4" t="s">
         <v>7</v>
@@ -17252,18 +17201,33 @@
         <v>0</v>
       </c>
       <c r="N86" s="4" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="O86" s="4" t="s">
-        <v>134</v>
+        <v>7</v>
       </c>
       <c r="P86" s="4" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="Q86" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="R86" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S86" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T86" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U86" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="V86" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W86" s="4" t="s">
         <v>7</v>
       </c>
       <c r="X86" s="4" t="s">
@@ -17280,27 +17244,33 @@
       <c r="AP86" s="4"/>
       <c r="AQ86" s="4"/>
     </row>
-    <row r="87" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>173</v>
+        <v>367</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H87" s="4" t="s">
-        <v>174</v>
+      <c r="G87" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>116</v>
+        <v>129</v>
+      </c>
+      <c r="J87" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="K87" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="L87" s="4" t="b">
         <v>0</v>
@@ -17308,8 +17278,39 @@
       <c r="M87" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="P87" s="4"/>
-      <c r="V87" s="4"/>
+      <c r="N87" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O87" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P87" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q87" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R87" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S87" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T87" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U87" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V87" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W87" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X87" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="Y87" s="4"/>
       <c r="AB87" s="4"/>
       <c r="AD87" s="4"/>
@@ -17319,85 +17320,267 @@
       <c r="AN87" s="4"/>
       <c r="AO87" s="4"/>
       <c r="AP87" s="4"/>
-      <c r="AQ87" s="4" t="s">
+      <c r="AQ87" s="4"/>
+    </row>
+    <row r="88" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I88" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="J88" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="K88" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L88" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M88" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N88" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O88" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P88" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q88" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R88" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S88" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T88" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U88" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V88" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W88" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X88" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y88" s="4"/>
+      <c r="AB88" s="4"/>
+      <c r="AD88" s="4"/>
+      <c r="AI88" s="4"/>
+      <c r="AJ88" s="4"/>
+      <c r="AK88" s="4"/>
+      <c r="AN88" s="4"/>
+      <c r="AO88" s="4"/>
+      <c r="AP88" s="4"/>
+      <c r="AQ88" s="4"/>
+    </row>
+    <row r="89" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="J89" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="K89" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L89" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M89" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N89" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O89" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="P89" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q89" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V89" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X89" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y89" s="4"/>
+      <c r="AB89" s="4"/>
+      <c r="AD89" s="4"/>
+      <c r="AI89" s="4"/>
+      <c r="AJ89" s="4"/>
+      <c r="AK89" s="4"/>
+      <c r="AN89" s="4"/>
+      <c r="AO89" s="4"/>
+      <c r="AP89" s="4"/>
+      <c r="AQ89" s="4"/>
+    </row>
+    <row r="90" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="I90" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="AT87" s="4" t="s">
-        <v>175</v>
+      <c r="L90" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M90" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="P90" s="4"/>
+      <c r="V90" s="4"/>
+      <c r="Y90" s="4"/>
+      <c r="AB90" s="4"/>
+      <c r="AD90" s="4"/>
+      <c r="AI90" s="4"/>
+      <c r="AJ90" s="4"/>
+      <c r="AK90" s="4"/>
+      <c r="AN90" s="4"/>
+      <c r="AO90" s="4"/>
+      <c r="AP90" s="4"/>
+      <c r="AQ90" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT90" s="4" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="24">
-    <dataValidation type="list" allowBlank="1" sqref="AB10:AB87">
+    <dataValidation type="list" allowBlank="1" sqref="AB10:AB90">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="AB2:AB87">
+    <dataValidation type="list" allowBlank="1" sqref="AB2:AB90">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="AD10:AD87">
+    <dataValidation type="list" allowBlank="1" sqref="AD10:AD90">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="AD2:AD87">
+    <dataValidation type="list" allowBlank="1" sqref="AD2:AD90">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="AI10:AK87">
+    <dataValidation type="list" allowBlank="1" sqref="AI10:AK90">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="AI2:AK87">
+    <dataValidation type="list" allowBlank="1" sqref="AI2:AK90">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="AN10:AN87">
+    <dataValidation type="list" allowBlank="1" sqref="AN10:AN90">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="AN2:AN87">
+    <dataValidation type="list" allowBlank="1" sqref="AN2:AN90">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="AO10:AO87">
+    <dataValidation type="list" allowBlank="1" sqref="AO10:AO90">
       <formula1>Lists!Q2:Q4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="AO2:AO87">
+    <dataValidation type="list" allowBlank="1" sqref="AO2:AO90">
       <formula1>Lists!Q2:Q4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="AP10:AP87">
+    <dataValidation type="list" allowBlank="1" sqref="AP10:AP90">
       <formula1>Lists!R2:R5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="AP2:AP87">
+    <dataValidation type="list" allowBlank="1" sqref="AP2:AP90">
       <formula1>Lists!R2:R5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="AQ10:AQ87">
+    <dataValidation type="list" allowBlank="1" sqref="AQ10:AQ90">
       <formula1>Lists!S2:S4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="AQ2:AQ87">
+    <dataValidation type="list" allowBlank="1" sqref="AQ2:AQ90">
       <formula1>Lists!S2:S4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="I10:I87">
+    <dataValidation type="list" allowBlank="1" sqref="I10:I90">
       <formula1>Lists!A2:A21</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="I2:I87">
+    <dataValidation type="list" allowBlank="1" sqref="I2:I90">
       <formula1>Lists!A2:A21</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="L10:M87">
+    <dataValidation type="list" allowBlank="1" sqref="L10:M90">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="L2:M87">
+    <dataValidation type="list" allowBlank="1" sqref="L2:M90">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="P10:P87">
+    <dataValidation type="list" allowBlank="1" sqref="P10:P90">
       <formula1>Lists!L2:L4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="P2:P87">
+    <dataValidation type="list" allowBlank="1" sqref="P2:P90">
       <formula1>Lists!L2:L4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="V10:V87">
+    <dataValidation type="list" allowBlank="1" sqref="V10:V90">
       <formula1>Lists!O2:O11</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="V2:V87">
+    <dataValidation type="list" allowBlank="1" sqref="V2:V90">
       <formula1>Lists!O2:O11</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="Y10:Y87">
+    <dataValidation type="list" allowBlank="1" sqref="Y10:Y90">
       <formula1>Lists!P2:P6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="Y2:Y87">
+    <dataValidation type="list" allowBlank="1" sqref="Y2:Y90">
       <formula1>Lists!P2:P6</formula1>
     </dataValidation>
   </dataValidations>
@@ -17437,61 +17620,61 @@
         <v>8</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="T1" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="U1" s="5" t="s">
         <v>16</v>
@@ -17643,139 +17826,139 @@
         <v>8</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>11</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q1" s="5" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AC1" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AE1" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AF1" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG1" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH1" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI1" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AJ1" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK1" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AL1" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AM1" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AN1" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AO1" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AP1" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AQ1" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AR1" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AS1" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AT1" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
